--- a/disagreement_matrix/engineering_version/rsj_matrix_records/Glass_withoutdupl_norm_ido.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/Glass_withoutdupl_norm_ido.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,6214 +394,5569 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1498343045609289</v>
+        <v>0.1868832687976623</v>
       </c>
       <c r="C2">
-        <v>0.1054309132148618</v>
+        <v>0.1353146665164807</v>
       </c>
       <c r="D2">
-        <v>0.1442162068591256</v>
+        <v>0.1857180376574402</v>
       </c>
       <c r="E2">
-        <v>0.1399952272345315</v>
+        <v>0.1812026911277005</v>
       </c>
       <c r="F2">
-        <v>0.04912625684219808</v>
+        <v>0.05505926825538403</v>
       </c>
       <c r="G2">
-        <v>0.08672614967006569</v>
+        <v>0.1042014673836676</v>
       </c>
       <c r="H2">
-        <v>0.1250764185438175</v>
-      </c>
-      <c r="I2">
-        <v>0.1995945230744711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.1516206002616648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1131085696895304</v>
+        <v>0.126138350253705</v>
       </c>
       <c r="C3">
-        <v>0.1113378667376558</v>
+        <v>0.1264020523915882</v>
       </c>
       <c r="D3">
-        <v>0.1141309287919634</v>
+        <v>0.1319572033414278</v>
       </c>
       <c r="E3">
-        <v>0.1298205274721792</v>
+        <v>0.1511645018559863</v>
       </c>
       <c r="F3">
-        <v>0.137417718139462</v>
+        <v>0.1568960181327467</v>
       </c>
       <c r="G3">
-        <v>0.1594749213457084</v>
+        <v>0.1811668916503412</v>
       </c>
       <c r="H3">
-        <v>0.1137828275918111</v>
-      </c>
-      <c r="I3">
-        <v>0.1209266402316897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.1262749823742049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.143230431425865</v>
+        <v>0.1920879025680236</v>
       </c>
       <c r="C4">
-        <v>0.1025314840849913</v>
+        <v>0.115453117755132</v>
       </c>
       <c r="D4">
-        <v>0.1251918856586723</v>
+        <v>0.1507841981874815</v>
       </c>
       <c r="E4">
-        <v>0.1413935155509044</v>
+        <v>0.1690655288200073</v>
       </c>
       <c r="F4">
-        <v>0.07433470066421111</v>
+        <v>0.08247427774628471</v>
       </c>
       <c r="G4">
-        <v>0.1126046888237164</v>
+        <v>0.1250473737451561</v>
       </c>
       <c r="H4">
-        <v>0.1470154807235326</v>
-      </c>
-      <c r="I4">
-        <v>0.1536978130681067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1650876011779148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05611378579885851</v>
+        <v>0.06609059118728984</v>
       </c>
       <c r="C5">
-        <v>0.1060867082179582</v>
+        <v>0.1134766794489957</v>
       </c>
       <c r="D5">
-        <v>0.192482882883389</v>
+        <v>0.2220065115714691</v>
       </c>
       <c r="E5">
-        <v>0.217967282698125</v>
+        <v>0.2458034235010857</v>
       </c>
       <c r="F5">
-        <v>0.2008803326243809</v>
+        <v>0.2240934200835995</v>
       </c>
       <c r="G5">
-        <v>0.06835784745135205</v>
+        <v>0.07539003085248183</v>
       </c>
       <c r="H5">
-        <v>0.05069823762089361</v>
-      </c>
-      <c r="I5">
-        <v>0.1074129227050427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.05313934335507836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02259180607953734</v>
+        <v>0.02501609503509583</v>
       </c>
       <c r="C6">
-        <v>0.01992770977489752</v>
+        <v>0.02207336740787692</v>
       </c>
       <c r="D6">
-        <v>0.2460600397244627</v>
+        <v>0.2629375436281718</v>
       </c>
       <c r="E6">
-        <v>0.2767907689817239</v>
+        <v>0.3277654872822367</v>
       </c>
       <c r="F6">
-        <v>0.162947110590841</v>
+        <v>0.1728685902077572</v>
       </c>
       <c r="G6">
-        <v>0.136067530802433</v>
+        <v>0.1385713851469725</v>
       </c>
       <c r="H6">
-        <v>0.04621590880997742</v>
-      </c>
-      <c r="I6">
-        <v>0.08939912523612702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.05076753129188893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1180289028850219</v>
+        <v>0.1281742010360692</v>
       </c>
       <c r="C7">
-        <v>0.1121956174295204</v>
+        <v>0.1248599010073736</v>
       </c>
       <c r="D7">
-        <v>0.1353380909594066</v>
+        <v>0.1591111132361164</v>
       </c>
       <c r="E7">
-        <v>0.1343506673341044</v>
+        <v>0.1544425774344217</v>
       </c>
       <c r="F7">
-        <v>0.1522489247842473</v>
+        <v>0.1683612251541416</v>
       </c>
       <c r="G7">
-        <v>0.1062135114764795</v>
+        <v>0.1221156411935541</v>
       </c>
       <c r="H7">
-        <v>0.1283238536617224</v>
-      </c>
-      <c r="I7">
-        <v>0.1133004314694974</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.1429353409383235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07636338858574213</v>
+        <v>0.08461418655396791</v>
       </c>
       <c r="C8">
-        <v>0.07801525450494853</v>
+        <v>0.0808154156997897</v>
       </c>
       <c r="D8">
-        <v>0.193197851419559</v>
+        <v>0.2154417355987922</v>
       </c>
       <c r="E8">
-        <v>0.1764481036603085</v>
+        <v>0.195737160498038</v>
       </c>
       <c r="F8">
-        <v>0.2067322624893754</v>
+        <v>0.2235150414906746</v>
       </c>
       <c r="G8">
-        <v>0.09296813227077021</v>
+        <v>0.102269928603718</v>
       </c>
       <c r="H8">
-        <v>0.08900144335357778</v>
-      </c>
-      <c r="I8">
-        <v>0.0872735637157185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.09760653155501953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1050979289129887</v>
+        <v>0.118912970473282</v>
       </c>
       <c r="C9">
-        <v>0.1055225598063041</v>
+        <v>0.1152133158964591</v>
       </c>
       <c r="D9">
-        <v>0.1651232821168579</v>
+        <v>0.188186196960162</v>
       </c>
       <c r="E9">
-        <v>0.1518177858509328</v>
+        <v>0.1738180530947892</v>
       </c>
       <c r="F9">
-        <v>0.1470799877112779</v>
+        <v>0.1614792006966854</v>
       </c>
       <c r="G9">
-        <v>0.09810705126410178</v>
+        <v>0.1131503850105799</v>
       </c>
       <c r="H9">
-        <v>0.1155718254239842</v>
-      </c>
-      <c r="I9">
-        <v>0.1116795789135526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.1292398778680425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1026173756297001</v>
+        <v>0.1090221873757243</v>
       </c>
       <c r="C10">
-        <v>0.1092619647137901</v>
+        <v>0.1202380502481518</v>
       </c>
       <c r="D10">
-        <v>0.1801880562191066</v>
+        <v>0.2247322289764544</v>
       </c>
       <c r="E10">
-        <v>0.1752368614065659</v>
+        <v>0.2023830666938975</v>
       </c>
       <c r="F10">
-        <v>0.1401296265488022</v>
+        <v>0.1617370689989347</v>
       </c>
       <c r="G10">
-        <v>0.07231298616673328</v>
+        <v>0.07289723422936364</v>
       </c>
       <c r="H10">
-        <v>0.09867713183013033</v>
-      </c>
-      <c r="I10">
-        <v>0.1215759974851713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1089901634774736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1538259132503237</v>
+        <v>0.1831994285541001</v>
       </c>
       <c r="C11">
-        <v>0.122306097775469</v>
+        <v>0.1402935214139363</v>
       </c>
       <c r="D11">
-        <v>0.1229040080163003</v>
+        <v>0.1521972226921504</v>
       </c>
       <c r="E11">
-        <v>0.1246928531507998</v>
+        <v>0.1476815078526569</v>
       </c>
       <c r="F11">
-        <v>0.08246826623992203</v>
+        <v>0.09350066420532249</v>
       </c>
       <c r="G11">
-        <v>0.09256331020387759</v>
+        <v>0.1056293592690672</v>
       </c>
       <c r="H11">
-        <v>0.1555065924159842</v>
-      </c>
-      <c r="I11">
-        <v>0.1457329589473234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.1774982960127667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.129638733308186</v>
+        <v>0.1803513135253498</v>
       </c>
       <c r="C12">
-        <v>0.08762926094537134</v>
+        <v>0.1148878869209803</v>
       </c>
       <c r="D12">
-        <v>0.1051401439476703</v>
+        <v>0.1436652498883097</v>
       </c>
       <c r="E12">
-        <v>0.122622287365852</v>
+        <v>0.1519989355363987</v>
       </c>
       <c r="F12">
-        <v>0.0730450144708668</v>
+        <v>0.0912463262853357</v>
       </c>
       <c r="G12">
-        <v>0.1233388263115914</v>
+        <v>0.1411437579854436</v>
       </c>
       <c r="H12">
-        <v>0.1527262501082816</v>
-      </c>
-      <c r="I12">
-        <v>0.2058594835421806</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.1767065298581823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07010335385013569</v>
+        <v>0.07421117517104163</v>
       </c>
       <c r="C13">
-        <v>0.08175249725597025</v>
+        <v>0.08803812452232683</v>
       </c>
       <c r="D13">
-        <v>0.1661208009259839</v>
+        <v>0.1856379988201236</v>
       </c>
       <c r="E13">
-        <v>0.2016059497067966</v>
+        <v>0.2275740131172893</v>
       </c>
       <c r="F13">
-        <v>0.1803189181292427</v>
+        <v>0.1939510407732496</v>
       </c>
       <c r="G13">
-        <v>0.1324115790103147</v>
+        <v>0.1413299875211153</v>
       </c>
       <c r="H13">
-        <v>0.08282981074345326</v>
-      </c>
-      <c r="I13">
-        <v>0.08485709037810277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.08925766007485371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1223477570836473</v>
+        <v>0.1379323012031428</v>
       </c>
       <c r="C14">
-        <v>0.1367413894548775</v>
+        <v>0.1647412216640684</v>
       </c>
       <c r="D14">
-        <v>0.09210784979742269</v>
+        <v>0.1013839370900234</v>
       </c>
       <c r="E14">
-        <v>0.1015392206369613</v>
+        <v>0.1088811041584178</v>
       </c>
       <c r="F14">
-        <v>0.1535405700495631</v>
+        <v>0.1690955902851568</v>
       </c>
       <c r="G14">
-        <v>0.167880037875704</v>
+        <v>0.1798248855610119</v>
       </c>
       <c r="H14">
-        <v>0.1255169188630146</v>
-      </c>
-      <c r="I14">
-        <v>0.1003262562388096</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.1381409600381789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.05408212161920081</v>
+        <v>0.05890512320880099</v>
       </c>
       <c r="C15">
-        <v>0.1360149369410097</v>
+        <v>0.1563376677428311</v>
       </c>
       <c r="D15">
-        <v>0.1444469398726131</v>
+        <v>0.149772981694189</v>
       </c>
       <c r="E15">
-        <v>0.1474010760510839</v>
+        <v>0.1580235633581873</v>
       </c>
       <c r="F15">
-        <v>0.1806620425386741</v>
+        <v>0.2113913786865458</v>
       </c>
       <c r="G15">
-        <v>0.1339129853652104</v>
+        <v>0.159241738683611</v>
       </c>
       <c r="H15">
-        <v>0.09859178019015116</v>
-      </c>
-      <c r="I15">
-        <v>0.1048881174220567</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.1063275466258347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1151411988814242</v>
+        <v>0.1337356183878549</v>
       </c>
       <c r="C16">
-        <v>0.1316929438078984</v>
+        <v>0.150105508478777</v>
       </c>
       <c r="D16">
-        <v>0.1322707928130108</v>
+        <v>0.1517054582992441</v>
       </c>
       <c r="E16">
-        <v>0.1222518969045327</v>
+        <v>0.1387493686628354</v>
       </c>
       <c r="F16">
-        <v>0.1464916820259012</v>
+        <v>0.1649534340814074</v>
       </c>
       <c r="G16">
-        <v>0.07840499938140205</v>
+        <v>0.08807492811041576</v>
       </c>
       <c r="H16">
-        <v>0.1519776883026661</v>
-      </c>
-      <c r="I16">
-        <v>0.1217687978831647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.1726756839794655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.136783950441558</v>
+        <v>0.154817463321989</v>
       </c>
       <c r="C17">
-        <v>0.1221811919222946</v>
+        <v>0.1381472955791423</v>
       </c>
       <c r="D17">
-        <v>0.1280986425510083</v>
+        <v>0.1466040994661463</v>
       </c>
       <c r="E17">
-        <v>0.1187435961798196</v>
+        <v>0.1306966921417195</v>
       </c>
       <c r="F17">
-        <v>0.1647792573389042</v>
+        <v>0.1823457977299757</v>
       </c>
       <c r="G17">
-        <v>0.08273924429300647</v>
+        <v>0.09192118245483791</v>
       </c>
       <c r="H17">
-        <v>0.1367520272450142</v>
-      </c>
-      <c r="I17">
-        <v>0.1099220900283948</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1554674693061894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1311030265760018</v>
+        <v>0.1438217052464819</v>
       </c>
       <c r="C18">
-        <v>0.1333632485085958</v>
+        <v>0.1460265844974044</v>
       </c>
       <c r="D18">
-        <v>0.1200242529340546</v>
+        <v>0.1365414262386935</v>
       </c>
       <c r="E18">
-        <v>0.1140721971962037</v>
+        <v>0.131049927526003</v>
       </c>
       <c r="F18">
-        <v>0.1113957728387746</v>
+        <v>0.1325474906507266</v>
       </c>
       <c r="G18">
-        <v>0.1443367429438619</v>
+        <v>0.1635772645094177</v>
       </c>
       <c r="H18">
-        <v>0.1298222830478402</v>
-      </c>
-      <c r="I18">
-        <v>0.1158824759546673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.1464356013312728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1477141414807143</v>
+        <v>0.1717900890327924</v>
       </c>
       <c r="C19">
-        <v>0.1404398454691604</v>
+        <v>0.1566592543878783</v>
       </c>
       <c r="D19">
-        <v>0.1553366518152068</v>
+        <v>0.1811586306775091</v>
       </c>
       <c r="E19">
-        <v>0.1299912856224195</v>
+        <v>0.1499346040909641</v>
       </c>
       <c r="F19">
-        <v>0.1303939166570129</v>
+        <v>0.1450309642760016</v>
       </c>
       <c r="G19">
-        <v>0.06795337638908322</v>
+        <v>0.073090191531965</v>
       </c>
       <c r="H19">
-        <v>0.1133157270534742</v>
-      </c>
-      <c r="I19">
-        <v>0.1148550555129286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.1223362660028896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.06114587931491296</v>
+        <v>0.06610681605242828</v>
       </c>
       <c r="C20">
-        <v>0.08807051072392252</v>
+        <v>0.09691377984773078</v>
       </c>
       <c r="D20">
-        <v>0.2373045009757825</v>
+        <v>0.2601089005998432</v>
       </c>
       <c r="E20">
-        <v>0.2857017550578364</v>
+        <v>0.3153477700631354</v>
       </c>
       <c r="F20">
-        <v>0.1003664730655363</v>
+        <v>0.1073976975383138</v>
       </c>
       <c r="G20">
-        <v>0.07777994186916276</v>
+        <v>0.07658161755217782</v>
       </c>
       <c r="H20">
-        <v>0.07134573771663298</v>
-      </c>
-      <c r="I20">
-        <v>0.07828520127621369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.07754341834637055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1314469879588403</v>
+        <v>0.150012821785274</v>
       </c>
       <c r="C21">
-        <v>0.1232215618272684</v>
+        <v>0.1415339303866041</v>
       </c>
       <c r="D21">
-        <v>0.1321207561306872</v>
+        <v>0.1516003135358716</v>
       </c>
       <c r="E21">
-        <v>0.1180553931704404</v>
+        <v>0.1341569653284668</v>
       </c>
       <c r="F21">
-        <v>0.1422628000409899</v>
+        <v>0.1588824664879378</v>
       </c>
       <c r="G21">
-        <v>0.09756007238456893</v>
+        <v>0.11522659352646</v>
       </c>
       <c r="H21">
-        <v>0.1308279538408409</v>
-      </c>
-      <c r="I21">
-        <v>0.1245044746463641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.1485869089493858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1211117073355232</v>
+        <v>0.1397159202595995</v>
       </c>
       <c r="C22">
-        <v>0.1238741162138745</v>
+        <v>0.139981477761347</v>
       </c>
       <c r="D22">
-        <v>0.1339885866634816</v>
+        <v>0.1580720334018632</v>
       </c>
       <c r="E22">
-        <v>0.1272461247555905</v>
+        <v>0.1468845635461152</v>
       </c>
       <c r="F22">
-        <v>0.1426490681371036</v>
+        <v>0.1616375420183819</v>
       </c>
       <c r="G22">
-        <v>0.1081482410388066</v>
+        <v>0.1236404302285781</v>
       </c>
       <c r="H22">
-        <v>0.1184808661188348</v>
-      </c>
-      <c r="I22">
-        <v>0.124501289736785</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.1300680327841149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.06378641505909156</v>
+        <v>0.07277550974661445</v>
       </c>
       <c r="C23">
-        <v>0.07962143108607102</v>
+        <v>0.08083797115186506</v>
       </c>
       <c r="D23">
-        <v>0.1941796964461305</v>
+        <v>0.2309901289133111</v>
       </c>
       <c r="E23">
-        <v>0.1746705801169325</v>
+        <v>0.2013969981585969</v>
       </c>
       <c r="F23">
-        <v>0.1795474442649312</v>
+        <v>0.1972746754570638</v>
       </c>
       <c r="G23">
-        <v>0.1252646052229475</v>
+        <v>0.135790270321711</v>
       </c>
       <c r="H23">
-        <v>0.07511143581312241</v>
-      </c>
-      <c r="I23">
-        <v>0.1078183919907733</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.08093444625083766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1560109426430253</v>
+        <v>0.1731318852662886</v>
       </c>
       <c r="C24">
-        <v>0.1447076880742882</v>
+        <v>0.158568080185637</v>
       </c>
       <c r="D24">
-        <v>0.1233544018426075</v>
+        <v>0.1374963065316048</v>
       </c>
       <c r="E24">
-        <v>0.09453989043248599</v>
+        <v>0.1084463965273394</v>
       </c>
       <c r="F24">
-        <v>0.1769675309288511</v>
+        <v>0.1975350069536799</v>
       </c>
       <c r="G24">
-        <v>0.07605073586815815</v>
+        <v>0.08562948197831093</v>
       </c>
       <c r="H24">
-        <v>0.1260540158693928</v>
-      </c>
-      <c r="I24">
-        <v>0.1023147943411911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.1391928425571394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2552263066009696</v>
+        <v>0.2804636933088653</v>
       </c>
       <c r="C25">
-        <v>0.09164135141266426</v>
+        <v>0.113663860851624</v>
       </c>
       <c r="D25">
-        <v>0.1188634179418045</v>
+        <v>0.1359324317075661</v>
       </c>
       <c r="E25">
-        <v>0.1239758669583045</v>
+        <v>0.1473695428581031</v>
       </c>
       <c r="F25">
-        <v>0.06648849565137226</v>
+        <v>0.07967708481109713</v>
       </c>
       <c r="G25">
-        <v>0.07692598206724753</v>
+        <v>0.09524263959183739</v>
       </c>
       <c r="H25">
-        <v>0.1199452805585214</v>
-      </c>
-      <c r="I25">
-        <v>0.146933298809116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.1476507468709069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.05577611335307066</v>
+        <v>0.06149844949240967</v>
       </c>
       <c r="C26">
-        <v>0.05804946797507751</v>
+        <v>0.06270948210134872</v>
       </c>
       <c r="D26">
-        <v>0.2274590548092798</v>
+        <v>0.2541734362445503</v>
       </c>
       <c r="E26">
-        <v>0.2595173606075063</v>
+        <v>0.2903257172099208</v>
       </c>
       <c r="F26">
-        <v>0.2170626517026599</v>
+        <v>0.2337293434787215</v>
       </c>
       <c r="G26">
-        <v>0.06277820078939908</v>
+        <v>0.0656797376121344</v>
       </c>
       <c r="H26">
-        <v>0.02970331345656715</v>
-      </c>
-      <c r="I26">
-        <v>0.08965383730643949</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.03188383386091447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1146601833177639</v>
+        <v>0.1376561826870896</v>
       </c>
       <c r="C27">
-        <v>0.09890690536564851</v>
+        <v>0.1126249979923021</v>
       </c>
       <c r="D27">
-        <v>0.1330899180005203</v>
+        <v>0.1594725005996092</v>
       </c>
       <c r="E27">
-        <v>0.1324135199909656</v>
+        <v>0.1566699770987363</v>
       </c>
       <c r="F27">
-        <v>0.06814479211954949</v>
+        <v>0.08587716140595973</v>
       </c>
       <c r="G27">
-        <v>0.09834327431162335</v>
+        <v>0.1160218825301903</v>
       </c>
       <c r="H27">
-        <v>0.2010360014090021</v>
-      </c>
-      <c r="I27">
-        <v>0.1534054054849265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.231677297686113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.137195190812761</v>
+        <v>0.1537517507808627</v>
       </c>
       <c r="C28">
-        <v>0.1300553006500848</v>
+        <v>0.1483544988926394</v>
       </c>
       <c r="D28">
-        <v>0.1139376533828676</v>
+        <v>0.1231341629472109</v>
       </c>
       <c r="E28">
-        <v>0.1153028864217857</v>
+        <v>0.1246622561128636</v>
       </c>
       <c r="F28">
-        <v>0.1621121251810832</v>
+        <v>0.1785923013990316</v>
       </c>
       <c r="G28">
-        <v>0.1152807827600587</v>
+        <v>0.1318183577137299</v>
       </c>
       <c r="H28">
-        <v>0.128604307669067</v>
-      </c>
-      <c r="I28">
-        <v>0.09751175312229202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.1396866721536619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1395357990549542</v>
+        <v>0.1594061560080559</v>
       </c>
       <c r="C29">
-        <v>0.1222569982900474</v>
+        <v>0.1431592014122844</v>
       </c>
       <c r="D29">
-        <v>0.1167854053068458</v>
+        <v>0.1321627606020122</v>
       </c>
       <c r="E29">
-        <v>0.1100862358433938</v>
+        <v>0.1261097036665712</v>
       </c>
       <c r="F29">
-        <v>0.109790487813826</v>
+        <v>0.1202061618844007</v>
       </c>
       <c r="G29">
-        <v>0.1573685991175272</v>
+        <v>0.1735909686949173</v>
       </c>
       <c r="H29">
-        <v>0.1257680361665815</v>
-      </c>
-      <c r="I29">
-        <v>0.1184084384068241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.1453650477317584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1019045608349271</v>
+        <v>0.1331930098744392</v>
       </c>
       <c r="C30">
-        <v>0.09607563735722127</v>
+        <v>0.1108900914652665</v>
       </c>
       <c r="D30">
-        <v>0.1007177140925063</v>
+        <v>0.1303535507230474</v>
       </c>
       <c r="E30">
-        <v>0.1338733410778215</v>
+        <v>0.1711532802434114</v>
       </c>
       <c r="F30">
-        <v>0.09393819478542086</v>
+        <v>0.1006495368331919</v>
       </c>
       <c r="G30">
-        <v>0.1258536394868862</v>
+        <v>0.1649928251501944</v>
       </c>
       <c r="H30">
-        <v>0.1597036483303334</v>
-      </c>
-      <c r="I30">
-        <v>0.1879332640348834</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.1887677057104492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.07330323619530912</v>
+        <v>0.1017175462493697</v>
       </c>
       <c r="C31">
-        <v>0.1144878331815028</v>
+        <v>0.131272188755872</v>
       </c>
       <c r="D31">
-        <v>0.09311689106872545</v>
+        <v>0.1046108366615136</v>
       </c>
       <c r="E31">
-        <v>0.1240362823903008</v>
+        <v>0.1598906543224874</v>
       </c>
       <c r="F31">
-        <v>0.1136787473694613</v>
+        <v>0.1150715740641683</v>
       </c>
       <c r="G31">
-        <v>0.1529775589695609</v>
+        <v>0.1808321241811699</v>
       </c>
       <c r="H31">
-        <v>0.1755291270079008</v>
-      </c>
-      <c r="I31">
-        <v>0.1528703238172387</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.2066050757654193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.163272516478768</v>
+        <v>0.1899229256440877</v>
       </c>
       <c r="C32">
-        <v>0.1327726761117665</v>
+        <v>0.153381664749186</v>
       </c>
       <c r="D32">
-        <v>0.145273034730427</v>
+        <v>0.1737559193521584</v>
       </c>
       <c r="E32">
-        <v>0.1348326563985384</v>
+        <v>0.1603690840278012</v>
       </c>
       <c r="F32">
-        <v>0.09349182026253937</v>
+        <v>0.1085767713901601</v>
       </c>
       <c r="G32">
-        <v>0.0707461519876743</v>
+        <v>0.08034175129966645</v>
       </c>
       <c r="H32">
-        <v>0.1154085607718052</v>
-      </c>
-      <c r="I32">
-        <v>0.1442025832584811</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.1336518835369401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1289805237790294</v>
+        <v>0.1514805580461269</v>
       </c>
       <c r="C33">
-        <v>0.1147613621821</v>
+        <v>0.1316858769225182</v>
       </c>
       <c r="D33">
-        <v>0.1229369014901212</v>
+        <v>0.1394675990433681</v>
       </c>
       <c r="E33">
-        <v>0.1209361299994068</v>
+        <v>0.1387381939381432</v>
       </c>
       <c r="F33">
-        <v>0.1633489133058894</v>
+        <v>0.1857531108668768</v>
       </c>
       <c r="G33">
-        <v>0.09604494508879335</v>
+        <v>0.1119642318676739</v>
       </c>
       <c r="H33">
-        <v>0.1226100223809685</v>
-      </c>
-      <c r="I33">
-        <v>0.1303812017736912</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.140910429315293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.02712911149811544</v>
+        <v>0.03046498018451765</v>
       </c>
       <c r="C34">
-        <v>0.06030691019345878</v>
+        <v>0.0704296452085847</v>
       </c>
       <c r="D34">
-        <v>0.1719656881397362</v>
+        <v>0.1888884610594384</v>
       </c>
       <c r="E34">
-        <v>0.3161297395352629</v>
+        <v>0.3340981436105174</v>
       </c>
       <c r="F34">
-        <v>0.1507061449074596</v>
+        <v>0.163556071913837</v>
       </c>
       <c r="G34">
-        <v>0.1155372907894714</v>
+        <v>0.1264324767588481</v>
       </c>
       <c r="H34">
-        <v>0.07959230478073194</v>
-      </c>
-      <c r="I34">
-        <v>0.07863281015576362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.08613022126425685</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1709766543788697</v>
+        <v>0.1946318136820357</v>
       </c>
       <c r="C35">
-        <v>0.118045254277669</v>
+        <v>0.1370574238978296</v>
       </c>
       <c r="D35">
-        <v>0.1481653226869538</v>
+        <v>0.1743106719652065</v>
       </c>
       <c r="E35">
-        <v>0.1153315230539801</v>
+        <v>0.1314758481468218</v>
       </c>
       <c r="F35">
-        <v>0.07712819001382988</v>
+        <v>0.08701854197717697</v>
       </c>
       <c r="G35">
-        <v>0.0821597181141638</v>
+        <v>0.09444757072665926</v>
       </c>
       <c r="H35">
-        <v>0.154001615159369</v>
-      </c>
-      <c r="I35">
-        <v>0.1341917223151646</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.18105812960427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.07317377655270996</v>
+        <v>0.0907663281020246</v>
       </c>
       <c r="C36">
-        <v>0.0955339865362449</v>
+        <v>0.1097730841880751</v>
       </c>
       <c r="D36">
-        <v>0.1410074204052557</v>
+        <v>0.1705790727534711</v>
       </c>
       <c r="E36">
-        <v>0.1353667280097871</v>
+        <v>0.1681715847762831</v>
       </c>
       <c r="F36">
-        <v>0.166475486188618</v>
+        <v>0.1838037635958885</v>
       </c>
       <c r="G36">
-        <v>0.10200926387958</v>
+        <v>0.1214857435294837</v>
       </c>
       <c r="H36">
-        <v>0.1361921072026188</v>
-      </c>
-      <c r="I36">
-        <v>0.1502412312251855</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.1554204230547739</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.157603095808519</v>
+        <v>0.1840316022780029</v>
       </c>
       <c r="C37">
-        <v>0.1339706620173256</v>
+        <v>0.1523837547799241</v>
       </c>
       <c r="D37">
-        <v>0.158094905749034</v>
+        <v>0.1808555155083393</v>
       </c>
       <c r="E37">
-        <v>0.1284614753801149</v>
+        <v>0.1482121856856242</v>
       </c>
       <c r="F37">
-        <v>0.1096940724667833</v>
+        <v>0.1262703629902551</v>
       </c>
       <c r="G37">
-        <v>0.07218016363165715</v>
+        <v>0.07972646526078597</v>
       </c>
       <c r="H37">
-        <v>0.1163091928686545</v>
-      </c>
-      <c r="I37">
-        <v>0.1236864320779115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.1285201134970684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1336225223700053</v>
+        <v>0.1599741994363446</v>
       </c>
       <c r="C38">
-        <v>0.1307797207110195</v>
+        <v>0.1516223079308915</v>
       </c>
       <c r="D38">
-        <v>0.1535490363517501</v>
+        <v>0.1815857762232463</v>
       </c>
       <c r="E38">
-        <v>0.1415642523127708</v>
+        <v>0.1731204135097514</v>
       </c>
       <c r="F38">
-        <v>0.07930868241428753</v>
+        <v>0.09183148750167686</v>
       </c>
       <c r="G38">
-        <v>0.07635227217795747</v>
+        <v>0.08802933847420884</v>
       </c>
       <c r="H38">
-        <v>0.1335241290629137</v>
-      </c>
-      <c r="I38">
-        <v>0.1512993845992955</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.1538364769238805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.06176873659307012</v>
+        <v>0.07008318729453282</v>
       </c>
       <c r="C39">
-        <v>0.07924409337003917</v>
+        <v>0.0861671842950319</v>
       </c>
       <c r="D39">
-        <v>0.1818827609444957</v>
+        <v>0.2059084452823085</v>
       </c>
       <c r="E39">
-        <v>0.2079253170058162</v>
+        <v>0.2303014261570276</v>
       </c>
       <c r="F39">
-        <v>0.1927143356954451</v>
+        <v>0.2059872806370415</v>
       </c>
       <c r="G39">
-        <v>0.1169508991978762</v>
+        <v>0.1272450176727228</v>
       </c>
       <c r="H39">
-        <v>0.07060270333968525</v>
-      </c>
-      <c r="I39">
-        <v>0.08891115385357209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.07430745866133494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1734126661156145</v>
+        <v>0.2041682864051103</v>
       </c>
       <c r="C40">
-        <v>0.09709690689460822</v>
+        <v>0.110727910023736</v>
       </c>
       <c r="D40">
-        <v>0.1161059401866599</v>
+        <v>0.1333595247516578</v>
       </c>
       <c r="E40">
-        <v>0.1199163824889268</v>
+        <v>0.139899627827226</v>
       </c>
       <c r="F40">
-        <v>0.05540440516152614</v>
+        <v>0.06638246168002684</v>
       </c>
       <c r="G40">
-        <v>0.113926415551262</v>
+        <v>0.134038259656054</v>
       </c>
       <c r="H40">
-        <v>0.1827611333200965</v>
-      </c>
-      <c r="I40">
-        <v>0.141376150281306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.211423929656189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.04872549547631701</v>
+        <v>0.05622097246361031</v>
       </c>
       <c r="C41">
-        <v>0.1015375614036384</v>
+        <v>0.1111549878033107</v>
       </c>
       <c r="D41">
-        <v>0.2474134035232997</v>
+        <v>0.2665152347546499</v>
       </c>
       <c r="E41">
-        <v>0.2056908161019254</v>
+        <v>0.234104089628055</v>
       </c>
       <c r="F41">
-        <v>0.1539116255971385</v>
+        <v>0.1695986061328298</v>
       </c>
       <c r="G41">
-        <v>0.08054477055043931</v>
+        <v>0.08688702837518054</v>
       </c>
       <c r="H41">
-        <v>0.06914063047900258</v>
-      </c>
-      <c r="I41">
-        <v>0.09303569686823904</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.07551908084236375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.09916914719023907</v>
+        <v>0.1251366873046613</v>
       </c>
       <c r="C42">
-        <v>0.1139762876557883</v>
+        <v>0.1440437915159278</v>
       </c>
       <c r="D42">
-        <v>0.1478112670936537</v>
+        <v>0.1669120809096283</v>
       </c>
       <c r="E42">
-        <v>0.1488155045158763</v>
+        <v>0.1738502906579547</v>
       </c>
       <c r="F42">
-        <v>0.07648209858972138</v>
+        <v>0.09097042333041623</v>
       </c>
       <c r="G42">
-        <v>0.1042065587727998</v>
+        <v>0.1284235544470519</v>
       </c>
       <c r="H42">
-        <v>0.1390232177164304</v>
-      </c>
-      <c r="I42">
-        <v>0.1705159184654911</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.1706631718343599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1601886324532554</v>
+        <v>0.1899653151632301</v>
       </c>
       <c r="C43">
-        <v>0.1250712709008048</v>
+        <v>0.1434803255912746</v>
       </c>
       <c r="D43">
-        <v>0.1386350439135826</v>
+        <v>0.1617404316914852</v>
       </c>
       <c r="E43">
-        <v>0.1219879253647647</v>
+        <v>0.1381860767513017</v>
       </c>
       <c r="F43">
-        <v>0.06604718443295748</v>
+        <v>0.07443316797360569</v>
       </c>
       <c r="G43">
-        <v>0.07598531598432456</v>
+        <v>0.08675971963806872</v>
       </c>
       <c r="H43">
-        <v>0.1775982083891731</v>
-      </c>
-      <c r="I43">
-        <v>0.1344864185611373</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.2054349631910342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.113819991465135</v>
+        <v>0.1357469825183132</v>
       </c>
       <c r="C44">
-        <v>0.1161847107067072</v>
+        <v>0.1469852808518443</v>
       </c>
       <c r="D44">
-        <v>0.1228417250974505</v>
+        <v>0.147625676824109</v>
       </c>
       <c r="E44">
-        <v>0.132541517315983</v>
+        <v>0.1599430254121034</v>
       </c>
       <c r="F44">
-        <v>0.08372224154976358</v>
+        <v>0.1039686510383511</v>
       </c>
       <c r="G44">
-        <v>0.1071777020391723</v>
+        <v>0.1315743493062557</v>
       </c>
       <c r="H44">
-        <v>0.1417574390784674</v>
-      </c>
-      <c r="I44">
-        <v>0.181954672747321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.1741560340490233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1251516076386701</v>
+        <v>0.1488489780981331</v>
       </c>
       <c r="C45">
-        <v>0.1112057861254662</v>
+        <v>0.1376894264479992</v>
       </c>
       <c r="D45">
-        <v>0.1345389766792625</v>
+        <v>0.1673595333513495</v>
       </c>
       <c r="E45">
-        <v>0.1421684887223429</v>
+        <v>0.1748013478043523</v>
       </c>
       <c r="F45">
-        <v>0.06255543233994558</v>
+        <v>0.07239044884219799</v>
       </c>
       <c r="G45">
-        <v>0.08797798906974305</v>
+        <v>0.1086507528769958</v>
       </c>
       <c r="H45">
-        <v>0.1602997853688373</v>
-      </c>
-      <c r="I45">
-        <v>0.1761019340557323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.1902595125789721</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1085186296140991</v>
+        <v>0.1194811492937943</v>
       </c>
       <c r="C46">
-        <v>0.1156345969269539</v>
+        <v>0.1311540269207237</v>
       </c>
       <c r="D46">
-        <v>0.1353549248033567</v>
+        <v>0.1558183950520413</v>
       </c>
       <c r="E46">
-        <v>0.1314812111878651</v>
+        <v>0.1480704716287206</v>
       </c>
       <c r="F46">
-        <v>0.1560805264717031</v>
+        <v>0.1776280383554222</v>
       </c>
       <c r="G46">
-        <v>0.1171317967819921</v>
+        <v>0.1326644694647944</v>
       </c>
       <c r="H46">
-        <v>0.1209215692756078</v>
-      </c>
-      <c r="I46">
-        <v>0.1148767449384221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.1351834492845038</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1652588960578758</v>
+        <v>0.2109917484467377</v>
       </c>
       <c r="C47">
-        <v>0.1086772373390634</v>
+        <v>0.1333375854546859</v>
       </c>
       <c r="D47">
-        <v>0.1527943521719855</v>
+        <v>0.1832226096482526</v>
       </c>
       <c r="E47">
-        <v>0.1467278982604747</v>
+        <v>0.1813835812381079</v>
       </c>
       <c r="F47">
-        <v>0.05753101407360738</v>
+        <v>0.07027868800629533</v>
       </c>
       <c r="G47">
-        <v>0.06804992257271783</v>
+        <v>0.07901310248800655</v>
       </c>
       <c r="H47">
-        <v>0.1197116067665069</v>
-      </c>
-      <c r="I47">
-        <v>0.1812490727577686</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.141772684717914</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.02738752959780044</v>
+        <v>0.03043771225533228</v>
       </c>
       <c r="C48">
-        <v>0.003972732193604749</v>
+        <v>0.00379078602973196</v>
       </c>
       <c r="D48">
-        <v>0.26863220909904</v>
+        <v>0.279414275456799</v>
       </c>
       <c r="E48">
-        <v>0.1369270050070835</v>
+        <v>0.1432099019244596</v>
       </c>
       <c r="F48">
-        <v>0.3618928721541119</v>
+        <v>0.4021991061049388</v>
       </c>
       <c r="G48">
-        <v>0.1268963570201662</v>
+        <v>0.1300657232816854</v>
       </c>
       <c r="H48">
-        <v>0.009302383648090487</v>
-      </c>
-      <c r="I48">
-        <v>0.06498891128010266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.0108824949470529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1914530183212121</v>
+        <v>0.2360407406898853</v>
       </c>
       <c r="C49">
-        <v>0.09106464421858521</v>
+        <v>0.1059083219494362</v>
       </c>
       <c r="D49">
-        <v>0.1413594527672135</v>
+        <v>0.1816640587948501</v>
       </c>
       <c r="E49">
-        <v>0.1569888840826235</v>
+        <v>0.1991757154837611</v>
       </c>
       <c r="F49">
-        <v>0.05828664313542423</v>
+        <v>0.06326526685496792</v>
       </c>
       <c r="G49">
-        <v>0.07371631444496124</v>
+        <v>0.08219692098758705</v>
       </c>
       <c r="H49">
-        <v>0.1168500045078248</v>
-      </c>
-      <c r="I49">
-        <v>0.1702810385221556</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1317489752395122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.04594341522878082</v>
+        <v>0.05185647748028435</v>
       </c>
       <c r="C50">
-        <v>0.0930141947235715</v>
+        <v>0.114891002615863</v>
       </c>
       <c r="D50">
-        <v>0.1020685130145036</v>
+        <v>0.1409237007621716</v>
       </c>
       <c r="E50">
-        <v>0.1750313917665153</v>
+        <v>0.2137048429369153</v>
       </c>
       <c r="F50">
-        <v>0.1004196225720786</v>
+        <v>0.1315616484324851</v>
       </c>
       <c r="G50">
-        <v>0.1316980755717289</v>
+        <v>0.1830702104222398</v>
       </c>
       <c r="H50">
-        <v>0.1244121713863446</v>
-      </c>
-      <c r="I50">
-        <v>0.2274126157364766</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.1639921173500407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1387113289887789</v>
+        <v>0.1757308397244449</v>
       </c>
       <c r="C51">
-        <v>0.1163780793962524</v>
+        <v>0.1355438775836747</v>
       </c>
       <c r="D51">
-        <v>0.1555331606324914</v>
+        <v>0.1833226846232864</v>
       </c>
       <c r="E51">
-        <v>0.1272045896643858</v>
+        <v>0.1514901901800987</v>
       </c>
       <c r="F51">
-        <v>0.05976330027399342</v>
+        <v>0.07246118010751446</v>
       </c>
       <c r="G51">
-        <v>0.09103025382831589</v>
+        <v>0.1071629365517176</v>
       </c>
       <c r="H51">
-        <v>0.1420519599283978</v>
-      </c>
-      <c r="I51">
-        <v>0.1693273272873845</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.1742882912292631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1244019300682083</v>
+        <v>0.1517912882251691</v>
       </c>
       <c r="C52">
-        <v>0.1311958285868365</v>
+        <v>0.1507178616611151</v>
       </c>
       <c r="D52">
-        <v>0.1480792735671806</v>
+        <v>0.1721827568878973</v>
       </c>
       <c r="E52">
-        <v>0.1244733477706853</v>
+        <v>0.142646381354224</v>
       </c>
       <c r="F52">
-        <v>0.1012154074809784</v>
+        <v>0.1134010414530622</v>
       </c>
       <c r="G52">
-        <v>0.06627680410276929</v>
+        <v>0.07345069480674603</v>
       </c>
       <c r="H52">
-        <v>0.1700906519722696</v>
-      </c>
-      <c r="I52">
-        <v>0.134266756451072</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.1958099756117863</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1945415245088211</v>
+        <v>0.2408412792881093</v>
       </c>
       <c r="C53">
-        <v>0.1157640236848529</v>
+        <v>0.1455869841882275</v>
       </c>
       <c r="D53">
-        <v>0.1097944004109348</v>
+        <v>0.1253121129218335</v>
       </c>
       <c r="E53">
-        <v>0.1216174335151842</v>
+        <v>0.1368101792437178</v>
       </c>
       <c r="F53">
-        <v>0.05988431929359095</v>
+        <v>0.06895308763842042</v>
       </c>
       <c r="G53">
-        <v>0.08467545036788435</v>
+        <v>0.0963658544415387</v>
       </c>
       <c r="H53">
-        <v>0.1483983620458822</v>
-      </c>
-      <c r="I53">
-        <v>0.1653244861728495</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1861305022781529</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.2516939120209332</v>
+        <v>0.2921007983436759</v>
       </c>
       <c r="C54">
-        <v>0.120291411365307</v>
+        <v>0.1387701408225637</v>
       </c>
       <c r="D54">
-        <v>0.1065861087762664</v>
+        <v>0.1218800532674109</v>
       </c>
       <c r="E54">
-        <v>0.1147402742121174</v>
+        <v>0.1259970408335365</v>
       </c>
       <c r="F54">
-        <v>0.0486858143980553</v>
+        <v>0.0550891097238823</v>
       </c>
       <c r="G54">
-        <v>0.07579811759497078</v>
+        <v>0.08491842244851422</v>
       </c>
       <c r="H54">
-        <v>0.1444554752015019</v>
-      </c>
-      <c r="I54">
-        <v>0.137748886430848</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.1812444345604165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1527794192838625</v>
+        <v>0.181160672910972</v>
       </c>
       <c r="C55">
-        <v>0.1290750658388819</v>
+        <v>0.1518030981505986</v>
       </c>
       <c r="D55">
-        <v>0.1449606220178376</v>
+        <v>0.1656414571203893</v>
       </c>
       <c r="E55">
-        <v>0.1387371382777965</v>
+        <v>0.1673395410873885</v>
       </c>
       <c r="F55">
-        <v>0.07534084764810121</v>
+        <v>0.08780680652178015</v>
       </c>
       <c r="G55">
-        <v>0.07972434017590234</v>
+        <v>0.09264551823390338</v>
       </c>
       <c r="H55">
-        <v>0.1354347309380813</v>
-      </c>
-      <c r="I55">
-        <v>0.1439478358195367</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.153602905974968</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.08967354878373995</v>
+        <v>0.09726890754100885</v>
       </c>
       <c r="C56">
-        <v>0.06252172800599157</v>
+        <v>0.06671734489245923</v>
       </c>
       <c r="D56">
-        <v>0.2334464097787955</v>
+        <v>0.2782240724192802</v>
       </c>
       <c r="E56">
-        <v>0.2605471298330738</v>
+        <v>0.3095610080408811</v>
       </c>
       <c r="F56">
-        <v>0.132341541290635</v>
+        <v>0.1465606486180208</v>
       </c>
       <c r="G56">
-        <v>0.05775451745918469</v>
+        <v>0.05572232116425777</v>
       </c>
       <c r="H56">
-        <v>0.0462188165701951</v>
-      </c>
-      <c r="I56">
-        <v>0.1174963082783844</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.04594569732409214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1487768348749908</v>
+        <v>0.1764270823006402</v>
       </c>
       <c r="C57">
-        <v>0.1111641327855301</v>
+        <v>0.1372388258080965</v>
       </c>
       <c r="D57">
-        <v>0.1330197765205067</v>
+        <v>0.167466479288258</v>
       </c>
       <c r="E57">
-        <v>0.128522025655209</v>
+        <v>0.1558974541947176</v>
       </c>
       <c r="F57">
-        <v>0.06570322960624253</v>
+        <v>0.07723525196116394</v>
       </c>
       <c r="G57">
-        <v>0.09201589687304361</v>
+        <v>0.1083165836082553</v>
       </c>
       <c r="H57">
-        <v>0.1459019969090894</v>
-      </c>
-      <c r="I57">
-        <v>0.1748961067753879</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.1774183228388686</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.01006037116292972</v>
+        <v>0.01030314204840847</v>
       </c>
       <c r="C58">
-        <v>0.05258507735994899</v>
+        <v>0.05793296168615834</v>
       </c>
       <c r="D58">
-        <v>0.2916885141532772</v>
+        <v>0.3213541276388223</v>
       </c>
       <c r="E58">
-        <v>0.1793970033855861</v>
+        <v>0.2012166930376843</v>
       </c>
       <c r="F58">
-        <v>0.2232850296074611</v>
+        <v>0.2449477126025364</v>
       </c>
       <c r="G58">
-        <v>0.1434687324325747</v>
+        <v>0.1518485957168161</v>
       </c>
       <c r="H58">
-        <v>0.01231015603733888</v>
-      </c>
-      <c r="I58">
-        <v>0.08720511586088338</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.01239676726957388</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1243965252719343</v>
+        <v>0.134522521427452</v>
       </c>
       <c r="C59">
-        <v>0.1567165357867367</v>
+        <v>0.1690244666195936</v>
       </c>
       <c r="D59">
-        <v>0.07469189051265447</v>
+        <v>0.08762345226580998</v>
       </c>
       <c r="E59">
-        <v>0.1112347057932244</v>
+        <v>0.131530141815103</v>
       </c>
       <c r="F59">
-        <v>0.1814709627199465</v>
+        <v>0.2136724449383288</v>
       </c>
       <c r="G59">
-        <v>0.1052708423335277</v>
+        <v>0.1209262880743066</v>
       </c>
       <c r="H59">
-        <v>0.1216763657986734</v>
-      </c>
-      <c r="I59">
-        <v>0.1245421717833025</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.142700684859406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1400279871260492</v>
+        <v>0.1618373887818643</v>
       </c>
       <c r="C60">
-        <v>0.1343986714818719</v>
+        <v>0.1539074497068146</v>
       </c>
       <c r="D60">
-        <v>0.1157177100977728</v>
+        <v>0.1321121847049668</v>
       </c>
       <c r="E60">
-        <v>0.1154267076121249</v>
+        <v>0.1310623175012458</v>
       </c>
       <c r="F60">
-        <v>0.1461260779907261</v>
+        <v>0.1564282459208278</v>
       </c>
       <c r="G60">
-        <v>0.09324586785806734</v>
+        <v>0.1098538685977841</v>
       </c>
       <c r="H60">
-        <v>0.135538592935513</v>
-      </c>
-      <c r="I60">
-        <v>0.1195183848978747</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.1547985447864966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1542553711626849</v>
+        <v>0.1845216866178733</v>
       </c>
       <c r="C61">
-        <v>0.1217476028667761</v>
+        <v>0.1418328684689684</v>
       </c>
       <c r="D61">
-        <v>0.1293097039184173</v>
+        <v>0.1570448389766447</v>
       </c>
       <c r="E61">
-        <v>0.120055487896104</v>
+        <v>0.1407787639545907</v>
       </c>
       <c r="F61">
-        <v>0.08562386025085936</v>
+        <v>0.09740257479477094</v>
       </c>
       <c r="G61">
-        <v>0.08372022206976171</v>
+        <v>0.0984519352337653</v>
       </c>
       <c r="H61">
-        <v>0.1526586682818074</v>
-      </c>
-      <c r="I61">
-        <v>0.152629083553589</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.1799673319533867</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.143600702901208</v>
+        <v>0.1636636241409868</v>
       </c>
       <c r="C62">
-        <v>0.1474522926192626</v>
+        <v>0.1665525713658842</v>
       </c>
       <c r="D62">
-        <v>0.103553371835015</v>
+        <v>0.1161940761502703</v>
       </c>
       <c r="E62">
-        <v>0.1082048176050236</v>
+        <v>0.1221340927009347</v>
       </c>
       <c r="F62">
-        <v>0.1666781773706316</v>
+        <v>0.1841417702648379</v>
       </c>
       <c r="G62">
-        <v>0.0919416147321824</v>
+        <v>0.1069860773746775</v>
       </c>
       <c r="H62">
-        <v>0.1209051243412672</v>
-      </c>
-      <c r="I62">
-        <v>0.1176638985954098</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1403277880024086</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.140230251803049</v>
+        <v>0.1637496378033529</v>
       </c>
       <c r="C63">
-        <v>0.1391917477538581</v>
+        <v>0.1602402376991522</v>
       </c>
       <c r="D63">
-        <v>0.1138387495914136</v>
+        <v>0.1285178024557676</v>
       </c>
       <c r="E63">
-        <v>0.113500437718744</v>
+        <v>0.1280180425956464</v>
       </c>
       <c r="F63">
-        <v>0.1378804022041965</v>
+        <v>0.1523743063361757</v>
       </c>
       <c r="G63">
-        <v>0.09169196158491165</v>
+        <v>0.1048272440231526</v>
       </c>
       <c r="H63">
-        <v>0.1424652289538016</v>
-      </c>
-      <c r="I63">
-        <v>0.1212012203900255</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.1622727290867524</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1455096816836329</v>
+        <v>0.1584919824010169</v>
       </c>
       <c r="C64">
-        <v>0.09621826396938959</v>
+        <v>0.1209714268625362</v>
       </c>
       <c r="D64">
-        <v>0.09180532803602755</v>
+        <v>0.1234880762964398</v>
       </c>
       <c r="E64">
-        <v>0.1110945609412449</v>
+        <v>0.1293974020590689</v>
       </c>
       <c r="F64">
-        <v>0.09474696164901412</v>
+        <v>0.1099622578925292</v>
       </c>
       <c r="G64">
-        <v>0.1308944993757598</v>
+        <v>0.1712860614305811</v>
       </c>
       <c r="H64">
-        <v>0.1521305957054151</v>
-      </c>
-      <c r="I64">
-        <v>0.1776001086395161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1864027930578279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.03927069482216625</v>
+        <v>0.04269367059566827</v>
       </c>
       <c r="C65">
-        <v>0.1166434045922435</v>
+        <v>0.1424773988428628</v>
       </c>
       <c r="D65">
-        <v>0.2409734424643201</v>
+        <v>0.2517554937057541</v>
       </c>
       <c r="E65">
-        <v>0.1843647190282908</v>
+        <v>0.1887489450702695</v>
       </c>
       <c r="F65">
-        <v>0.2107282641613981</v>
+        <v>0.2226234836339091</v>
       </c>
       <c r="G65">
-        <v>0.09155604265494351</v>
+        <v>0.09948253166727214</v>
       </c>
       <c r="H65">
-        <v>0.04851029195252725</v>
-      </c>
-      <c r="I65">
-        <v>0.06795314032411064</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.05221847648426432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.03656915268463297</v>
+        <v>0.03730600971715373</v>
       </c>
       <c r="C66">
-        <v>0.1007090325456747</v>
+        <v>0.1067620291551004</v>
       </c>
       <c r="D66">
-        <v>0.182287914808113</v>
+        <v>0.1811735245995813</v>
       </c>
       <c r="E66">
-        <v>0.2390383625011521</v>
+        <v>0.2460763998987009</v>
       </c>
       <c r="F66">
-        <v>0.1909730418230298</v>
+        <v>0.2106832892651445</v>
       </c>
       <c r="G66">
-        <v>0.1272547939349243</v>
+        <v>0.150553233387582</v>
       </c>
       <c r="H66">
-        <v>0.06291116700907491</v>
-      </c>
-      <c r="I66">
-        <v>0.06025653469339822</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.06744551397673713</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.07805778668780416</v>
+        <v>0.09683382832985292</v>
       </c>
       <c r="C67">
-        <v>0.06827846040527555</v>
+        <v>0.076085313978137</v>
       </c>
       <c r="D67">
-        <v>0.2496475566789574</v>
+        <v>0.2512659926886899</v>
       </c>
       <c r="E67">
-        <v>0.2189459470778763</v>
+        <v>0.2371312680509575</v>
       </c>
       <c r="F67">
-        <v>0.126387192395012</v>
+        <v>0.1411421689877585</v>
       </c>
       <c r="G67">
-        <v>0.06119933493714749</v>
+        <v>0.06788306287234679</v>
       </c>
       <c r="H67">
-        <v>0.1113305515321236</v>
-      </c>
-      <c r="I67">
-        <v>0.08615317028580352</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.1296583650922574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.1412545954113964</v>
+        <v>0.1636819394885636</v>
       </c>
       <c r="C68">
-        <v>0.1298995308716795</v>
+        <v>0.1495336939473252</v>
       </c>
       <c r="D68">
-        <v>0.1299217423557604</v>
+        <v>0.1488951145918969</v>
       </c>
       <c r="E68">
-        <v>0.1141130482449205</v>
+        <v>0.1285706492021631</v>
       </c>
       <c r="F68">
-        <v>0.143242609638524</v>
+        <v>0.1581266744423878</v>
       </c>
       <c r="G68">
-        <v>0.0914714329754739</v>
+        <v>0.1052586317998025</v>
       </c>
       <c r="H68">
-        <v>0.1283772618668721</v>
-      </c>
-      <c r="I68">
-        <v>0.1217197786353732</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.1459332965278609</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.07165380258720992</v>
+        <v>0.08219321710341017</v>
       </c>
       <c r="C69">
-        <v>0.1081209914898509</v>
+        <v>0.1233785466725388</v>
       </c>
       <c r="D69">
-        <v>0.1608673309399994</v>
+        <v>0.1623221479184186</v>
       </c>
       <c r="E69">
-        <v>0.1657296536183819</v>
+        <v>0.1682282653512928</v>
       </c>
       <c r="F69">
-        <v>0.1407137033029158</v>
+        <v>0.1579282963913054</v>
       </c>
       <c r="G69">
-        <v>0.1597712413340123</v>
+        <v>0.2019284445451834</v>
       </c>
       <c r="H69">
-        <v>0.09445918453846512</v>
-      </c>
-      <c r="I69">
-        <v>0.09868409218916475</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.104021082017851</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.03884509494844293</v>
+        <v>0.04811538749321948</v>
       </c>
       <c r="C70">
-        <v>0.1135919401828546</v>
+        <v>0.1300360755212784</v>
       </c>
       <c r="D70">
-        <v>0.2186122172481727</v>
+        <v>0.25213435013314</v>
       </c>
       <c r="E70">
-        <v>0.1898310658839868</v>
+        <v>0.2234366650570107</v>
       </c>
       <c r="F70">
-        <v>0.1272114801303218</v>
+        <v>0.1483858583644644</v>
       </c>
       <c r="G70">
-        <v>0.1039821035973211</v>
+        <v>0.1188175516504407</v>
       </c>
       <c r="H70">
-        <v>0.07372636745000713</v>
-      </c>
-      <c r="I70">
-        <v>0.134199730558893</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.07907411178044636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.113175001117979</v>
+        <v>0.1292919204445185</v>
       </c>
       <c r="C71">
-        <v>0.1258245596184343</v>
+        <v>0.1446927052722566</v>
       </c>
       <c r="D71">
-        <v>0.1493815490030738</v>
+        <v>0.1754717664403639</v>
       </c>
       <c r="E71">
-        <v>0.1229187238610621</v>
+        <v>0.1416262752082675</v>
       </c>
       <c r="F71">
-        <v>0.1316498035364678</v>
+        <v>0.1496848898580016</v>
       </c>
       <c r="G71">
-        <v>0.1198959182995057</v>
+        <v>0.1328210754212585</v>
       </c>
       <c r="H71">
-        <v>0.1142210768374362</v>
-      </c>
-      <c r="I71">
-        <v>0.1229333677260412</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.1264113673553333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.05004101052453994</v>
+        <v>0.05196674083243216</v>
       </c>
       <c r="C72">
-        <v>0.05765648851969458</v>
+        <v>0.06267742504920236</v>
       </c>
       <c r="D72">
-        <v>0.2483465179577462</v>
+        <v>0.2648875508726226</v>
       </c>
       <c r="E72">
-        <v>0.2129470651161662</v>
+        <v>0.2329390855398335</v>
       </c>
       <c r="F72">
-        <v>0.1958351744767974</v>
+        <v>0.2079840991652787</v>
       </c>
       <c r="G72">
-        <v>0.1174802438290248</v>
+        <v>0.1223175008629899</v>
       </c>
       <c r="H72">
-        <v>0.05345653350655601</v>
-      </c>
-      <c r="I72">
-        <v>0.0642369660694749</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.05722759767764086</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1048039093007592</v>
+        <v>0.1147611472855938</v>
       </c>
       <c r="C73">
-        <v>0.1318820134683689</v>
+        <v>0.1583749692240521</v>
       </c>
       <c r="D73">
-        <v>0.1553305186957113</v>
+        <v>0.1772481311058789</v>
       </c>
       <c r="E73">
-        <v>0.1665637576704832</v>
+        <v>0.189231853278323</v>
       </c>
       <c r="F73">
-        <v>0.05033984468380674</v>
+        <v>0.05717789191562497</v>
       </c>
       <c r="G73">
-        <v>0.07564708214459182</v>
+        <v>0.08859715422255771</v>
       </c>
       <c r="H73">
-        <v>0.1857846662559587</v>
-      </c>
-      <c r="I73">
-        <v>0.1296482077803199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.2146088529679695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.05260929696276723</v>
+        <v>0.05754948968512562</v>
       </c>
       <c r="C74">
-        <v>0.1193562886689335</v>
+        <v>0.1351382973118597</v>
       </c>
       <c r="D74">
-        <v>0.2224363287180389</v>
+        <v>0.2503367023374967</v>
       </c>
       <c r="E74">
-        <v>0.1929595763701846</v>
+        <v>0.2201812267386597</v>
       </c>
       <c r="F74">
-        <v>0.1578120199622826</v>
+        <v>0.1759325197708206</v>
       </c>
       <c r="G74">
-        <v>0.0973464742254506</v>
+        <v>0.1072773422928501</v>
       </c>
       <c r="H74">
-        <v>0.04765659439257384</v>
-      </c>
-      <c r="I74">
-        <v>0.1098234206997687</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.05358442186318777</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1351288068522206</v>
+        <v>0.1615559792792088</v>
       </c>
       <c r="C75">
-        <v>0.1284990360510474</v>
+        <v>0.1514938116261526</v>
       </c>
       <c r="D75">
-        <v>0.1546018081270243</v>
+        <v>0.1783126440018873</v>
       </c>
       <c r="E75">
-        <v>0.1181987205225035</v>
+        <v>0.1360299259170934</v>
       </c>
       <c r="F75">
-        <v>0.1046005863109589</v>
+        <v>0.1180863888482613</v>
       </c>
       <c r="G75">
-        <v>0.08553931999690059</v>
+        <v>0.09689474924971593</v>
       </c>
       <c r="H75">
-        <v>0.1391994857090789</v>
-      </c>
-      <c r="I75">
-        <v>0.1342322364302658</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.1576265010776805</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1059175058467469</v>
+        <v>0.1038822885485498</v>
       </c>
       <c r="C76">
-        <v>0.1294976538992703</v>
+        <v>0.1631292960590341</v>
       </c>
       <c r="D76">
-        <v>0.0796648440411651</v>
+        <v>0.08516991911076943</v>
       </c>
       <c r="E76">
-        <v>0.1114117887909387</v>
+        <v>0.1283930591503659</v>
       </c>
       <c r="F76">
-        <v>0.1359873172762717</v>
+        <v>0.1479251428769328</v>
       </c>
       <c r="G76">
-        <v>0.2279711869476387</v>
+        <v>0.2521945097477989</v>
       </c>
       <c r="H76">
-        <v>0.1140804049863497</v>
-      </c>
-      <c r="I76">
-        <v>0.09546929821161886</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.119305784506549</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1476145308759184</v>
+        <v>0.1776853771598979</v>
       </c>
       <c r="C77">
-        <v>0.1247203391404395</v>
+        <v>0.1444027814361419</v>
       </c>
       <c r="D77">
-        <v>0.1421894051031864</v>
+        <v>0.1664224322448707</v>
       </c>
       <c r="E77">
-        <v>0.1265740422317244</v>
+        <v>0.1476712587680588</v>
       </c>
       <c r="F77">
-        <v>0.07227084577342224</v>
+        <v>0.08456778528293186</v>
       </c>
       <c r="G77">
-        <v>0.07882679363090901</v>
+        <v>0.09343217049843447</v>
       </c>
       <c r="H77">
-        <v>0.1623008104704387</v>
-      </c>
-      <c r="I77">
-        <v>0.1455032327739611</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.1858181946096644</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1359128254692131</v>
+        <v>0.1578872295344295</v>
       </c>
       <c r="C78">
-        <v>0.1246600971950186</v>
+        <v>0.1468802492561757</v>
       </c>
       <c r="D78">
-        <v>0.1665227102736221</v>
+        <v>0.1890588369140336</v>
       </c>
       <c r="E78">
-        <v>0.1359007773522801</v>
+        <v>0.1540085470766314</v>
       </c>
       <c r="F78">
-        <v>0.09133381125067593</v>
+        <v>0.1096499282423495</v>
       </c>
       <c r="G78">
-        <v>0.05454230522221596</v>
+        <v>0.06019459841754116</v>
       </c>
       <c r="H78">
-        <v>0.1523451667098525</v>
-      </c>
-      <c r="I78">
-        <v>0.1387823065271217</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.1823206105588393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.2155616827583806</v>
+        <v>0.2542207155632112</v>
       </c>
       <c r="C79">
-        <v>0.1074105339016256</v>
+        <v>0.1362089585413379</v>
       </c>
       <c r="D79">
-        <v>0.1173763820135637</v>
+        <v>0.1440574566893457</v>
       </c>
       <c r="E79">
-        <v>0.1183970451748372</v>
+        <v>0.1440172233430762</v>
       </c>
       <c r="F79">
-        <v>0.05709030075750481</v>
+        <v>0.06928449238549483</v>
       </c>
       <c r="G79">
-        <v>0.07684550506827882</v>
+        <v>0.09045822118088065</v>
       </c>
       <c r="H79">
-        <v>0.1274859847153967</v>
-      </c>
-      <c r="I79">
-        <v>0.1798325656104125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.1617529322966533</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1203275024423822</v>
+        <v>0.1794481938058067</v>
       </c>
       <c r="C80">
-        <v>0.1023707677314365</v>
+        <v>0.1278132234966081</v>
       </c>
       <c r="D80">
-        <v>0.1145214696748487</v>
+        <v>0.1449200914518974</v>
       </c>
       <c r="E80">
-        <v>0.1258610426467876</v>
+        <v>0.1522600583848038</v>
       </c>
       <c r="F80">
-        <v>0.09040601507621643</v>
+        <v>0.1010451165973108</v>
       </c>
       <c r="G80">
-        <v>0.09725270257583819</v>
+        <v>0.1083358853968266</v>
       </c>
       <c r="H80">
-        <v>0.1641500069295833</v>
-      </c>
-      <c r="I80">
-        <v>0.185110492922907</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1861774308667466</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.108587208328013</v>
+        <v>0.1418115154917467</v>
       </c>
       <c r="C81">
-        <v>0.1177468563156235</v>
+        <v>0.1441039355084202</v>
       </c>
       <c r="D81">
-        <v>0.1440866245647091</v>
+        <v>0.172992109954186</v>
       </c>
       <c r="E81">
-        <v>0.1410334626390628</v>
+        <v>0.1495110243751597</v>
       </c>
       <c r="F81">
-        <v>0.0799936335817044</v>
+        <v>0.09546408584839827</v>
       </c>
       <c r="G81">
-        <v>0.0979159144615258</v>
+        <v>0.1169709421771453</v>
       </c>
       <c r="H81">
-        <v>0.1544302458835996</v>
-      </c>
-      <c r="I81">
-        <v>0.1562060542257619</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.1791463866449437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.1935686040932725</v>
+        <v>0.2232154173877395</v>
       </c>
       <c r="C82">
-        <v>0.1004310734733742</v>
+        <v>0.1233330957076561</v>
       </c>
       <c r="D82">
-        <v>0.09737957371982668</v>
+        <v>0.1246882797701154</v>
       </c>
       <c r="E82">
-        <v>0.1262127913759986</v>
+        <v>0.1502787084240531</v>
       </c>
       <c r="F82">
-        <v>0.07380994202217377</v>
+        <v>0.08955849385228924</v>
       </c>
       <c r="G82">
-        <v>0.1005819500158041</v>
+        <v>0.1209548699204465</v>
       </c>
       <c r="H82">
-        <v>0.13660940038505</v>
-      </c>
-      <c r="I82">
-        <v>0.1714066649145002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.1679711349377001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1892104014037662</v>
+        <v>0.2076076878381803</v>
       </c>
       <c r="C83">
-        <v>0.1146496363616105</v>
+        <v>0.1306816691511849</v>
       </c>
       <c r="D83">
-        <v>0.1383794646358098</v>
+        <v>0.1604819985471626</v>
       </c>
       <c r="E83">
-        <v>0.1235200627991761</v>
+        <v>0.1455508000992145</v>
       </c>
       <c r="F83">
-        <v>0.07084470687923256</v>
+        <v>0.08506638696858297</v>
       </c>
       <c r="G83">
-        <v>0.09212546724521997</v>
+        <v>0.1071824386033678</v>
       </c>
       <c r="H83">
-        <v>0.1338430476812302</v>
-      </c>
-      <c r="I83">
-        <v>0.1374272129939546</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.1634290187923068</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.07355212027807188</v>
+        <v>0.08337768275952166</v>
       </c>
       <c r="C84">
-        <v>0.08207851460424632</v>
+        <v>0.08634725380664607</v>
       </c>
       <c r="D84">
-        <v>0.1849896741750964</v>
+        <v>0.1947058562895218</v>
       </c>
       <c r="E84">
-        <v>0.2088612268234135</v>
+        <v>0.215884753881755</v>
       </c>
       <c r="F84">
-        <v>0.2445358935741137</v>
+        <v>0.2531627946292844</v>
       </c>
       <c r="G84">
-        <v>0.1127564869081066</v>
+        <v>0.1263836130280359</v>
       </c>
       <c r="H84">
-        <v>0.03662596347852558</v>
-      </c>
-      <c r="I84">
-        <v>0.05660012015842607</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.04013804560523531</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1188167074793487</v>
+        <v>0.1405331672548963</v>
       </c>
       <c r="C85">
-        <v>0.1049233143469924</v>
+        <v>0.1346972361729388</v>
       </c>
       <c r="D85">
-        <v>0.1133243908760596</v>
+        <v>0.1396281418392928</v>
       </c>
       <c r="E85">
-        <v>0.1256787733097555</v>
+        <v>0.1488123763612722</v>
       </c>
       <c r="F85">
-        <v>0.08035997570870754</v>
+        <v>0.1016796344967346</v>
       </c>
       <c r="G85">
-        <v>0.1155746328194697</v>
+        <v>0.1419795974171927</v>
       </c>
       <c r="H85">
-        <v>0.1453776402423077</v>
-      </c>
-      <c r="I85">
-        <v>0.195944565217359</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.1926698464576725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.05169020045035971</v>
+        <v>0.05885042705360315</v>
       </c>
       <c r="C86">
-        <v>0.1004023525358725</v>
+        <v>0.1036234158871969</v>
       </c>
       <c r="D86">
-        <v>0.2183657396517439</v>
+        <v>0.2555555919935611</v>
       </c>
       <c r="E86">
-        <v>0.2451959493134722</v>
+        <v>0.2844697869033107</v>
       </c>
       <c r="F86">
-        <v>0.1581252319522519</v>
+        <v>0.1761473649382475</v>
       </c>
       <c r="G86">
-        <v>0.06344746552469788</v>
+        <v>0.06493816426441334</v>
       </c>
       <c r="H86">
-        <v>0.05342904656567208</v>
-      </c>
-      <c r="I86">
-        <v>0.1093440140059297</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.05641524895966743</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1194863089832108</v>
+        <v>0.1314382713083281</v>
       </c>
       <c r="C87">
-        <v>0.1264696590164213</v>
+        <v>0.1430627630157983</v>
       </c>
       <c r="D87">
-        <v>0.1185456190734228</v>
+        <v>0.133965060595786</v>
       </c>
       <c r="E87">
-        <v>0.1426031316043243</v>
+        <v>0.1592439982528312</v>
       </c>
       <c r="F87">
-        <v>0.1358217323585692</v>
+        <v>0.1581207086232183</v>
       </c>
       <c r="G87">
-        <v>0.1253916583369228</v>
+        <v>0.1437177120517098</v>
       </c>
       <c r="H87">
-        <v>0.1145397922912063</v>
-      </c>
-      <c r="I87">
-        <v>0.1171420983359227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.1304514861523282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.05366517318021509</v>
+        <v>0.0578802603509018</v>
       </c>
       <c r="C88">
-        <v>0.07915018415222186</v>
+        <v>0.0889147461758332</v>
       </c>
       <c r="D88">
-        <v>0.1830998745040019</v>
+        <v>0.2071355739924684</v>
       </c>
       <c r="E88">
-        <v>0.1728782721395018</v>
+        <v>0.2160633636153283</v>
       </c>
       <c r="F88">
-        <v>0.2008819047851399</v>
+        <v>0.2144612576588042</v>
       </c>
       <c r="G88">
-        <v>0.1231150163782278</v>
+        <v>0.1300196620756768</v>
       </c>
       <c r="H88">
-        <v>0.07914946183591376</v>
-      </c>
-      <c r="I88">
-        <v>0.1080601130247779</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.08552513613098729</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.1589668161252674</v>
+        <v>0.1824532192467074</v>
       </c>
       <c r="C89">
-        <v>0.1025666153234072</v>
+        <v>0.123585240315612</v>
       </c>
       <c r="D89">
-        <v>0.1302685545692775</v>
+        <v>0.1505692141090494</v>
       </c>
       <c r="E89">
-        <v>0.1407162017755734</v>
+        <v>0.1646209571675141</v>
       </c>
       <c r="F89">
-        <v>0.08311794745511907</v>
+        <v>0.09887303109454229</v>
       </c>
       <c r="G89">
-        <v>0.09628717726098016</v>
+        <v>0.1122085488394769</v>
       </c>
       <c r="H89">
-        <v>0.132278133725668</v>
-      </c>
-      <c r="I89">
-        <v>0.1557985537647074</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.1676897892270977</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1483357562200383</v>
+        <v>0.1698401459258912</v>
       </c>
       <c r="C90">
-        <v>0.09733985851712348</v>
+        <v>0.1182477053456221</v>
       </c>
       <c r="D90">
-        <v>0.1019848289972153</v>
+        <v>0.1275472378947202</v>
       </c>
       <c r="E90">
-        <v>0.1341221092525916</v>
+        <v>0.1606569515349437</v>
       </c>
       <c r="F90">
-        <v>0.06414604557127801</v>
+        <v>0.07438365033400848</v>
       </c>
       <c r="G90">
-        <v>0.1235568147800072</v>
+        <v>0.1486417437255496</v>
       </c>
       <c r="H90">
-        <v>0.1753780439272471</v>
-      </c>
-      <c r="I90">
-        <v>0.1551365427344991</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.2006825652392648</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.06080893720928198</v>
+        <v>0.06929312075461594</v>
       </c>
       <c r="C91">
-        <v>0.0768870035405578</v>
+        <v>0.0886295894269338</v>
       </c>
       <c r="D91">
-        <v>0.2473711546265342</v>
+        <v>0.2601977030956807</v>
       </c>
       <c r="E91">
-        <v>0.2899672735165129</v>
+        <v>0.3000626718742936</v>
       </c>
       <c r="F91">
-        <v>0.1395369060565886</v>
+        <v>0.1562771507189411</v>
       </c>
       <c r="G91">
-        <v>0.06325929947350156</v>
+        <v>0.06949018634996246</v>
       </c>
       <c r="H91">
-        <v>0.05201326001719899</v>
-      </c>
-      <c r="I91">
-        <v>0.07015616555982404</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.05604957777957235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1167575835178436</v>
+        <v>0.1343787478330392</v>
       </c>
       <c r="C92">
-        <v>0.1225240930640966</v>
+        <v>0.1395818243811306</v>
       </c>
       <c r="D92">
-        <v>0.148126413494547</v>
+        <v>0.1681157392020559</v>
       </c>
       <c r="E92">
-        <v>0.1367219356925434</v>
+        <v>0.1577094791252205</v>
       </c>
       <c r="F92">
-        <v>0.140994614001456</v>
+        <v>0.1587306643387705</v>
       </c>
       <c r="G92">
-        <v>0.1054225493012895</v>
+        <v>0.1151953471311544</v>
       </c>
       <c r="H92">
-        <v>0.1100483075175709</v>
-      </c>
-      <c r="I92">
-        <v>0.119404503410653</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.1262881979886288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1670123946879036</v>
+        <v>0.2059718383704989</v>
       </c>
       <c r="C93">
-        <v>0.09112327528948817</v>
+        <v>0.1125520898712341</v>
       </c>
       <c r="D93">
-        <v>0.1174024347246242</v>
+        <v>0.1592082369956943</v>
       </c>
       <c r="E93">
-        <v>0.130690893266582</v>
+        <v>0.163881930261818</v>
       </c>
       <c r="F93">
-        <v>0.06378207582825393</v>
+        <v>0.07655319196016265</v>
       </c>
       <c r="G93">
-        <v>0.08824043001120689</v>
+        <v>0.1090463344711834</v>
       </c>
       <c r="H93">
-        <v>0.1366660719784073</v>
-      </c>
-      <c r="I93">
-        <v>0.2050824242135339</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.1727863780694087</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1283257790285895</v>
+        <v>0.1450572342332004</v>
       </c>
       <c r="C94">
-        <v>0.1210435799523653</v>
+        <v>0.1321146235823947</v>
       </c>
       <c r="D94">
-        <v>0.1358680797321476</v>
+        <v>0.1549416997855097</v>
       </c>
       <c r="E94">
-        <v>0.129813243193087</v>
+        <v>0.1498314761522408</v>
       </c>
       <c r="F94">
-        <v>0.1517148095282302</v>
+        <v>0.1752131333029493</v>
       </c>
       <c r="G94">
-        <v>0.09937654444335274</v>
+        <v>0.1129008529385723</v>
       </c>
       <c r="H94">
-        <v>0.1207282562545055</v>
-      </c>
-      <c r="I94">
-        <v>0.1131297078677223</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.1299409800051329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.06532962560370971</v>
+        <v>0.07255387024933664</v>
       </c>
       <c r="C95">
-        <v>0.08569282243316871</v>
+        <v>0.09656891460750884</v>
       </c>
       <c r="D95">
-        <v>0.1880710517227573</v>
+        <v>0.205058245911295</v>
       </c>
       <c r="E95">
-        <v>0.2240839798867695</v>
+        <v>0.2452265683772826</v>
       </c>
       <c r="F95">
-        <v>0.1935372419356705</v>
+        <v>0.2104701160203122</v>
       </c>
       <c r="G95">
-        <v>0.07949277404996766</v>
+        <v>0.0854681572281239</v>
       </c>
       <c r="H95">
-        <v>0.07825684574188145</v>
-      </c>
-      <c r="I95">
-        <v>0.08553565862607537</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.08465412760614081</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.08955180893001355</v>
+        <v>0.09917912051680727</v>
       </c>
       <c r="C96">
-        <v>0.06096348632163578</v>
+        <v>0.0670074931228109</v>
       </c>
       <c r="D96">
-        <v>0.2046832798444234</v>
+        <v>0.2432895524847429</v>
       </c>
       <c r="E96">
-        <v>0.2535425645789053</v>
+        <v>0.2891854910831274</v>
       </c>
       <c r="F96">
-        <v>0.1457395956156487</v>
+        <v>0.1679060149563414</v>
       </c>
       <c r="G96">
-        <v>0.06429305206072954</v>
+        <v>0.06905107249472882</v>
       </c>
       <c r="H96">
-        <v>0.0600624370213565</v>
-      </c>
-      <c r="I96">
-        <v>0.1211637756272871</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.06438125534144137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.1316165169930394</v>
+        <v>0.1519001488622429</v>
       </c>
       <c r="C97">
-        <v>0.1325595115219489</v>
+        <v>0.1495560648693267</v>
       </c>
       <c r="D97">
-        <v>0.1026533196180112</v>
+        <v>0.1143027398467705</v>
       </c>
       <c r="E97">
-        <v>0.08591231943993392</v>
+        <v>0.09179142755406731</v>
       </c>
       <c r="F97">
-        <v>0.2069824696140724</v>
+        <v>0.2390723947588734</v>
       </c>
       <c r="G97">
-        <v>0.1043136921485447</v>
+        <v>0.108474432895663</v>
       </c>
       <c r="H97">
-        <v>0.1223729528762806</v>
-      </c>
-      <c r="I97">
-        <v>0.1135892177881687</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.1449027912130562</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1171282477866168</v>
+        <v>0.1343041349213085</v>
       </c>
       <c r="C98">
-        <v>0.125688385251345</v>
+        <v>0.1440090929947514</v>
       </c>
       <c r="D98">
-        <v>0.13202435276227</v>
+        <v>0.1481220940926332</v>
       </c>
       <c r="E98">
-        <v>0.1290097003375328</v>
+        <v>0.1474716850676995</v>
       </c>
       <c r="F98">
-        <v>0.1227364107460348</v>
+        <v>0.1419120899441753</v>
       </c>
       <c r="G98">
-        <v>0.1314491756453538</v>
+        <v>0.1472938272979891</v>
       </c>
       <c r="H98">
-        <v>0.1188685609428567</v>
-      </c>
-      <c r="I98">
-        <v>0.1230951665279902</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.1368870756814431</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.06192754919057687</v>
+        <v>0.06623540944796687</v>
       </c>
       <c r="C99">
-        <v>0.06582042847944443</v>
+        <v>0.07423137753599453</v>
       </c>
       <c r="D99">
-        <v>0.2616584784095803</v>
+        <v>0.2780704996554357</v>
       </c>
       <c r="E99">
-        <v>0.2746382856122625</v>
+        <v>0.2995205114743368</v>
       </c>
       <c r="F99">
-        <v>0.1324226550592147</v>
+        <v>0.144335383143727</v>
       </c>
       <c r="G99">
-        <v>0.06525362152526491</v>
+        <v>0.07046020246533038</v>
       </c>
       <c r="H99">
-        <v>0.0598395821371993</v>
-      </c>
-      <c r="I99">
-        <v>0.07843939958645693</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.0671466162772088</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1408018300135369</v>
+        <v>0.1647615585300458</v>
       </c>
       <c r="C100">
-        <v>0.1004099133472734</v>
+        <v>0.1262113426281586</v>
       </c>
       <c r="D100">
-        <v>0.1229907783294675</v>
+        <v>0.1589988232741733</v>
       </c>
       <c r="E100">
-        <v>0.1185968913156487</v>
+        <v>0.1481783022944616</v>
       </c>
       <c r="F100">
-        <v>0.07303230876556005</v>
+        <v>0.08774348226046073</v>
       </c>
       <c r="G100">
-        <v>0.09495903869283426</v>
+        <v>0.1175444419253367</v>
       </c>
       <c r="H100">
-        <v>0.1578498850720519</v>
-      </c>
-      <c r="I100">
-        <v>0.1913593544636273</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.1965620490873633</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.1312667331600945</v>
+        <v>0.1541415009729483</v>
       </c>
       <c r="C101">
-        <v>0.1185612762146814</v>
+        <v>0.1377837237584138</v>
       </c>
       <c r="D101">
-        <v>0.1456123120632</v>
+        <v>0.1651252614180005</v>
       </c>
       <c r="E101">
-        <v>0.09630852149090498</v>
+        <v>0.1048916848729933</v>
       </c>
       <c r="F101">
-        <v>0.165157997863322</v>
+        <v>0.1873826508762731</v>
       </c>
       <c r="G101">
-        <v>0.08887305234146928</v>
+        <v>0.1004184851572487</v>
       </c>
       <c r="H101">
-        <v>0.1390203076468454</v>
-      </c>
-      <c r="I101">
-        <v>0.1151997992194824</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.1502566929441225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.1449154470215739</v>
+        <v>0.1652291210127214</v>
       </c>
       <c r="C102">
-        <v>0.1374996844260049</v>
+        <v>0.1577781261099541</v>
       </c>
       <c r="D102">
-        <v>0.1128162619542371</v>
+        <v>0.127986949496654</v>
       </c>
       <c r="E102">
-        <v>0.110554606393157</v>
+        <v>0.1247861927890691</v>
       </c>
       <c r="F102">
-        <v>0.1471776136502143</v>
+        <v>0.158177961195512</v>
       </c>
       <c r="G102">
-        <v>0.0940535904644382</v>
+        <v>0.1103796590505456</v>
       </c>
       <c r="H102">
-        <v>0.1357416994509725</v>
-      </c>
-      <c r="I102">
-        <v>0.1172410966394021</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.1556619903455437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.1886929039028662</v>
+        <v>0.230410547586497</v>
       </c>
       <c r="C103">
-        <v>0.1080289667869257</v>
+        <v>0.1235891791738805</v>
       </c>
       <c r="D103">
-        <v>0.1459384228683691</v>
+        <v>0.1720609380084163</v>
       </c>
       <c r="E103">
-        <v>0.1151994947555092</v>
+        <v>0.130252790382514</v>
       </c>
       <c r="F103">
-        <v>0.0548248643793813</v>
+        <v>0.06477509209086092</v>
       </c>
       <c r="G103">
-        <v>0.08927220827731328</v>
+        <v>0.1021499098462102</v>
       </c>
       <c r="H103">
-        <v>0.1539105077583185</v>
-      </c>
-      <c r="I103">
-        <v>0.1441326312713169</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.1767615429116212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.05764285783945338</v>
+        <v>0.059169919327634</v>
       </c>
       <c r="C104">
-        <v>0.03322971923941</v>
+        <v>0.02934277265412637</v>
       </c>
       <c r="D104">
-        <v>0.1813987778931314</v>
+        <v>0.1944225572660118</v>
       </c>
       <c r="E104">
-        <v>0.3987728958453382</v>
+        <v>0.4549342780945988</v>
       </c>
       <c r="F104">
-        <v>0.1321503760217437</v>
+        <v>0.1329636037380602</v>
       </c>
       <c r="G104">
-        <v>0.1039888783778738</v>
+        <v>0.1029794661870844</v>
       </c>
       <c r="H104">
-        <v>0.02538654029783442</v>
-      </c>
-      <c r="I104">
-        <v>0.06742995448521499</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.02618740273248463</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1173384965914419</v>
+        <v>0.1296118921330956</v>
       </c>
       <c r="C105">
-        <v>0.1301823380839623</v>
+        <v>0.1430330060298745</v>
       </c>
       <c r="D105">
-        <v>0.1418314551110353</v>
+        <v>0.1629716482711005</v>
       </c>
       <c r="E105">
-        <v>0.1371776828857864</v>
+        <v>0.1590608016138932</v>
       </c>
       <c r="F105">
-        <v>0.1221934051228404</v>
+        <v>0.1450152465679278</v>
       </c>
       <c r="G105">
-        <v>0.1067830258534418</v>
+        <v>0.1168799655603182</v>
       </c>
       <c r="H105">
-        <v>0.1254894377820482</v>
-      </c>
-      <c r="I105">
-        <v>0.1190041585694437</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.1434274398237901</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1249350532114882</v>
+        <v>0.1394510542971687</v>
       </c>
       <c r="C106">
-        <v>0.1302283032594048</v>
+        <v>0.1450882406967907</v>
       </c>
       <c r="D106">
-        <v>0.1262442238502081</v>
+        <v>0.142941933508289</v>
       </c>
       <c r="E106">
-        <v>0.1206265188238165</v>
+        <v>0.1379356912329568</v>
       </c>
       <c r="F106">
-        <v>0.1127837245096753</v>
+        <v>0.1334040153894593</v>
       </c>
       <c r="G106">
-        <v>0.1413171490199202</v>
+        <v>0.1603166222886417</v>
       </c>
       <c r="H106">
-        <v>0.1248189651458653</v>
-      </c>
-      <c r="I106">
-        <v>0.1190460621796218</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.1408624425866938</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.02115682379305835</v>
+        <v>0.02188862645300276</v>
       </c>
       <c r="C107">
-        <v>0.01112826203840996</v>
+        <v>0.01216684178908375</v>
       </c>
       <c r="D107">
-        <v>0.217411588679764</v>
+        <v>0.2654918021842449</v>
       </c>
       <c r="E107">
-        <v>0.1145343837643809</v>
+        <v>0.1396666255621153</v>
       </c>
       <c r="F107">
-        <v>0.3370707299594146</v>
+        <v>0.3815320462436016</v>
       </c>
       <c r="G107">
-        <v>0.1246891013466713</v>
+        <v>0.1522686700606597</v>
       </c>
       <c r="H107">
-        <v>0.02798641668497894</v>
-      </c>
-      <c r="I107">
-        <v>0.146022693733322</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.02698538770729194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.192984717913574</v>
+        <v>0.2146113710565052</v>
       </c>
       <c r="C108">
-        <v>0.1102960107341414</v>
+        <v>0.1229118577688964</v>
       </c>
       <c r="D108">
-        <v>0.1353117701854454</v>
+        <v>0.1503274357497596</v>
       </c>
       <c r="E108">
-        <v>0.09750981407496673</v>
+        <v>0.1099222391018269</v>
       </c>
       <c r="F108">
-        <v>0.1763638417606468</v>
+        <v>0.197587846687286</v>
       </c>
       <c r="G108">
-        <v>0.06647786066078358</v>
+        <v>0.07256386074954745</v>
       </c>
       <c r="H108">
-        <v>0.1167516685785854</v>
-      </c>
-      <c r="I108">
-        <v>0.1043043160918569</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.1320753888861784</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.04863302675506875</v>
+        <v>0.05458446612371347</v>
       </c>
       <c r="C109">
-        <v>0.1190180067238564</v>
+        <v>0.130316858078953</v>
       </c>
       <c r="D109">
-        <v>0.2033021114976133</v>
+        <v>0.242190738468992</v>
       </c>
       <c r="E109">
-        <v>0.2130769772434832</v>
+        <v>0.2501692257942186</v>
       </c>
       <c r="F109">
-        <v>0.1341761849478392</v>
+        <v>0.1517536155028241</v>
       </c>
       <c r="G109">
-        <v>0.07200667866860334</v>
+        <v>0.07920900289727426</v>
       </c>
       <c r="H109">
-        <v>0.08319219449103996</v>
-      </c>
-      <c r="I109">
-        <v>0.1265948196724959</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.09177609313402463</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.1525580633468821</v>
+        <v>0.1766523168190784</v>
       </c>
       <c r="C110">
-        <v>0.1279448028056696</v>
+        <v>0.1457587205083966</v>
       </c>
       <c r="D110">
-        <v>0.1298803694172765</v>
+        <v>0.1434173252689821</v>
       </c>
       <c r="E110">
-        <v>0.1052226344793296</v>
+        <v>0.1161727801055019</v>
       </c>
       <c r="F110">
-        <v>0.1607287129226587</v>
+        <v>0.1852033333624528</v>
       </c>
       <c r="G110">
-        <v>0.08962094204269347</v>
+        <v>0.1023205898003921</v>
       </c>
       <c r="H110">
-        <v>0.1123390216608142</v>
-      </c>
-      <c r="I110">
-        <v>0.1217054533246757</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.130474934135196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0488227145028602</v>
+        <v>0.05263230089901925</v>
       </c>
       <c r="C111">
-        <v>0.08319991733996983</v>
+        <v>0.09352285998620291</v>
       </c>
       <c r="D111">
-        <v>0.2497478556114765</v>
+        <v>0.2742716771937738</v>
       </c>
       <c r="E111">
-        <v>0.2507104688974968</v>
+        <v>0.2712712187812987</v>
       </c>
       <c r="F111">
-        <v>0.1543376040946657</v>
+        <v>0.1624306550106715</v>
       </c>
       <c r="G111">
-        <v>0.0786069724419604</v>
+        <v>0.08432404645705156</v>
       </c>
       <c r="H111">
-        <v>0.05754068526403368</v>
-      </c>
-      <c r="I111">
-        <v>0.07703378184753698</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.06154724167198221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.05451312149517627</v>
+        <v>0.0595749822745045</v>
       </c>
       <c r="C112">
-        <v>0.08026308933442597</v>
+        <v>0.08990948670576764</v>
       </c>
       <c r="D112">
-        <v>0.2217585695981209</v>
+        <v>0.2365042640576501</v>
       </c>
       <c r="E112">
-        <v>0.2407496765549761</v>
+        <v>0.2635006262636051</v>
       </c>
       <c r="F112">
-        <v>0.1598076946022967</v>
+        <v>0.1785091894382256</v>
       </c>
       <c r="G112">
-        <v>0.08653241389438127</v>
+        <v>0.09360325397314828</v>
       </c>
       <c r="H112">
-        <v>0.07149429884437092</v>
-      </c>
-      <c r="I112">
-        <v>0.08488113567625176</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.07839819728709872</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.104102015884418</v>
+        <v>0.1199909250201367</v>
       </c>
       <c r="C113">
-        <v>0.1147103887866488</v>
+        <v>0.132740539527289</v>
       </c>
       <c r="D113">
-        <v>0.1815102454935406</v>
+        <v>0.2085213191041617</v>
       </c>
       <c r="E113">
-        <v>0.1706144103335589</v>
+        <v>0.1997058271904761</v>
       </c>
       <c r="F113">
-        <v>0.1419314445748528</v>
+        <v>0.1610084158852097</v>
       </c>
       <c r="G113">
-        <v>0.08339591852676406</v>
+        <v>0.0875128245812461</v>
       </c>
       <c r="H113">
-        <v>0.08210829718011173</v>
-      </c>
-      <c r="I113">
-        <v>0.1216272792201051</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.0905201486914806</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.1281567813689064</v>
+        <v>0.1462734419473052</v>
       </c>
       <c r="C114">
-        <v>0.1342416471082544</v>
+        <v>0.1507416270862065</v>
       </c>
       <c r="D114">
-        <v>0.1046229163880038</v>
+        <v>0.1200223883556502</v>
       </c>
       <c r="E114">
-        <v>0.1067090303671566</v>
+        <v>0.1204018861165529</v>
       </c>
       <c r="F114">
-        <v>0.1709462861269026</v>
+        <v>0.1908610227870899</v>
       </c>
       <c r="G114">
-        <v>0.1112040861773001</v>
+        <v>0.1288527193456578</v>
       </c>
       <c r="H114">
-        <v>0.1261347148128449</v>
-      </c>
-      <c r="I114">
-        <v>0.1179845376506312</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.1428469143615377</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.1260341631015449</v>
+        <v>0.1365612816713244</v>
       </c>
       <c r="C115">
-        <v>0.1188963517740026</v>
+        <v>0.1299797828951211</v>
       </c>
       <c r="D115">
-        <v>0.1278212438308056</v>
+        <v>0.1473231302741811</v>
       </c>
       <c r="E115">
-        <v>0.1140521766937726</v>
+        <v>0.1288102585345275</v>
       </c>
       <c r="F115">
-        <v>0.1166552726288768</v>
+        <v>0.1380011572470536</v>
       </c>
       <c r="G115">
-        <v>0.1637520007142604</v>
+        <v>0.1912593117966088</v>
       </c>
       <c r="H115">
-        <v>0.1158106869899281</v>
-      </c>
-      <c r="I115">
-        <v>0.116978104266809</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.1280650775811835</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.2470698540958172</v>
+        <v>0.2719278252970423</v>
       </c>
       <c r="C116">
-        <v>0.08516363665711225</v>
+        <v>0.1049501153751797</v>
       </c>
       <c r="D116">
-        <v>0.1271890700221696</v>
+        <v>0.1465555198795106</v>
       </c>
       <c r="E116">
-        <v>0.1054003161201598</v>
+        <v>0.1226850694621144</v>
       </c>
       <c r="F116">
-        <v>0.0620026738857625</v>
+        <v>0.07388452026870417</v>
       </c>
       <c r="G116">
-        <v>0.07787057425450271</v>
+        <v>0.08801029457928655</v>
       </c>
       <c r="H116">
-        <v>0.1699634533423403</v>
-      </c>
-      <c r="I116">
-        <v>0.1253404216221357</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.1919866551381623</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.1355636613525972</v>
+        <v>0.158246416207389</v>
       </c>
       <c r="C117">
-        <v>0.1225139156315157</v>
+        <v>0.141026638212166</v>
       </c>
       <c r="D117">
-        <v>0.1319336277034062</v>
+        <v>0.1502767293143862</v>
       </c>
       <c r="E117">
-        <v>0.1002644450114312</v>
+        <v>0.1137661203750081</v>
       </c>
       <c r="F117">
-        <v>0.1518920678693933</v>
+        <v>0.1686943979301508</v>
       </c>
       <c r="G117">
-        <v>0.09282726491125608</v>
+        <v>0.1081137156165508</v>
       </c>
       <c r="H117">
-        <v>0.137265068558665</v>
-      </c>
-      <c r="I117">
-        <v>0.1277399489617354</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.1598759823443491</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.06101643708591793</v>
+        <v>0.06614869292646176</v>
       </c>
       <c r="C118">
-        <v>0.08762672117983533</v>
+        <v>0.09617763644796559</v>
       </c>
       <c r="D118">
-        <v>0.2060301544065472</v>
+        <v>0.2233941423078497</v>
       </c>
       <c r="E118">
-        <v>0.2152648507261877</v>
+        <v>0.2362111090531738</v>
       </c>
       <c r="F118">
-        <v>0.194805093494288</v>
+        <v>0.2108541286998728</v>
       </c>
       <c r="G118">
-        <v>0.08521705284637139</v>
+        <v>0.08974482517929969</v>
       </c>
       <c r="H118">
-        <v>0.07223121697359165</v>
-      </c>
-      <c r="I118">
-        <v>0.07780847328726086</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.0774694653853768</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.03466557215773969</v>
+        <v>0.03439829254032707</v>
       </c>
       <c r="C119">
-        <v>0.05593199968289272</v>
+        <v>0.05345723064342039</v>
       </c>
       <c r="D119">
-        <v>0.2253646934558406</v>
+        <v>0.26190297081756</v>
       </c>
       <c r="E119">
-        <v>0.2176268712027192</v>
+        <v>0.2559113755897077</v>
       </c>
       <c r="F119">
-        <v>0.1758110403277862</v>
+        <v>0.1926473108209215</v>
       </c>
       <c r="G119">
-        <v>0.1362413057368966</v>
+        <v>0.1547745771853483</v>
       </c>
       <c r="H119">
-        <v>0.04694324550064981</v>
-      </c>
-      <c r="I119">
-        <v>0.1074152719354753</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.04690824240271499</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.04714273470953863</v>
+        <v>0.05391061866815799</v>
       </c>
       <c r="C120">
-        <v>0.1293342716787303</v>
+        <v>0.1380357178213991</v>
       </c>
       <c r="D120">
-        <v>0.2346068145054453</v>
+        <v>0.2637769408395063</v>
       </c>
       <c r="E120">
-        <v>0.1907270430227438</v>
+        <v>0.2257112004782373</v>
       </c>
       <c r="F120">
-        <v>0.1502087120649268</v>
+        <v>0.1600282459547177</v>
       </c>
       <c r="G120">
-        <v>0.09106328240758105</v>
+        <v>0.1027184244331412</v>
       </c>
       <c r="H120">
-        <v>0.05146506559013325</v>
-      </c>
-      <c r="I120">
-        <v>0.105452076020901</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.05581885180484052</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.05968705026815856</v>
+        <v>0.06692953854109303</v>
       </c>
       <c r="C121">
-        <v>0.07226465755194804</v>
+        <v>0.08052221416511009</v>
       </c>
       <c r="D121">
-        <v>0.1787346883199059</v>
+        <v>0.2021458757385507</v>
       </c>
       <c r="E121">
-        <v>0.2185418492505616</v>
+        <v>0.2380610518569579</v>
       </c>
       <c r="F121">
-        <v>0.1910301701292349</v>
+        <v>0.2026136670566276</v>
       </c>
       <c r="G121">
-        <v>0.1032948086193417</v>
+        <v>0.1103087037161</v>
       </c>
       <c r="H121">
-        <v>0.09225913325910105</v>
-      </c>
-      <c r="I121">
-        <v>0.08418764260174842</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.09941894892556068</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.1692077266468478</v>
+        <v>0.1917246640420729</v>
       </c>
       <c r="C122">
-        <v>0.1275393177919398</v>
+        <v>0.1477776029521423</v>
       </c>
       <c r="D122">
-        <v>0.153363552334929</v>
+        <v>0.1715982150027872</v>
       </c>
       <c r="E122">
-        <v>0.1140659024979445</v>
+        <v>0.1293940784264513</v>
       </c>
       <c r="F122">
-        <v>0.09656440792811467</v>
+        <v>0.1079731519866219</v>
       </c>
       <c r="G122">
-        <v>0.08074676398389331</v>
+        <v>0.09106170129221224</v>
       </c>
       <c r="H122">
-        <v>0.1428949365859102</v>
-      </c>
-      <c r="I122">
-        <v>0.1156173922304208</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.1604705862977122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1501966481499106</v>
+        <v>0.172868123029429</v>
       </c>
       <c r="C123">
-        <v>0.1440494856012722</v>
+        <v>0.1593799657249647</v>
       </c>
       <c r="D123">
-        <v>0.1647082851515839</v>
+        <v>0.191241035937321</v>
       </c>
       <c r="E123">
-        <v>0.1307919513776779</v>
+        <v>0.1493387393900495</v>
       </c>
       <c r="F123">
-        <v>0.1004019049273182</v>
+        <v>0.1228916156297885</v>
       </c>
       <c r="G123">
-        <v>0.06317331661758731</v>
+        <v>0.06884465684925853</v>
       </c>
       <c r="H123">
-        <v>0.1226790407258738</v>
-      </c>
-      <c r="I123">
-        <v>0.1239993674487761</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.1354358634391888</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.03554856434988426</v>
+        <v>0.0419460885659024</v>
       </c>
       <c r="C124">
-        <v>0.1189385799508996</v>
+        <v>0.1128146340578993</v>
       </c>
       <c r="D124">
-        <v>0.2199846797656436</v>
+        <v>0.238761364355944</v>
       </c>
       <c r="E124">
-        <v>0.2185961937144931</v>
+        <v>0.2337478309261991</v>
       </c>
       <c r="F124">
-        <v>0.2031568819099732</v>
+        <v>0.213232698109618</v>
       </c>
       <c r="G124">
-        <v>0.09593982734688108</v>
+        <v>0.1115389986931021</v>
       </c>
       <c r="H124">
-        <v>0.0424515300461686</v>
-      </c>
-      <c r="I124">
-        <v>0.06538374291605654</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.04795838529133518</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.03722748835900426</v>
+        <v>0.04165061604282695</v>
       </c>
       <c r="C125">
-        <v>0.1232633744374458</v>
+        <v>0.1425576033726573</v>
       </c>
       <c r="D125">
-        <v>0.1800834947370251</v>
+        <v>0.2078844223593659</v>
       </c>
       <c r="E125">
-        <v>0.189176940742984</v>
+        <v>0.2320115653009579</v>
       </c>
       <c r="F125">
-        <v>0.1770118360586397</v>
+        <v>0.2007983392782019</v>
       </c>
       <c r="G125">
-        <v>0.1084532298848635</v>
+        <v>0.1215089990364315</v>
       </c>
       <c r="H125">
-        <v>0.05105856355075237</v>
-      </c>
-      <c r="I125">
-        <v>0.1337250722292851</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.05358845460955859</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.05030928905096915</v>
+        <v>0.05301814544450972</v>
       </c>
       <c r="C126">
-        <v>0.1047508023410567</v>
+        <v>0.1169825268927121</v>
       </c>
       <c r="D126">
-        <v>0.2522225949599793</v>
+        <v>0.2653119839553668</v>
       </c>
       <c r="E126">
-        <v>0.2900802820556855</v>
+        <v>0.3059987194932038</v>
       </c>
       <c r="F126">
-        <v>0.111880230116312</v>
+        <v>0.124038031438996</v>
       </c>
       <c r="G126">
-        <v>0.06272734079265654</v>
+        <v>0.06940538025073657</v>
       </c>
       <c r="H126">
-        <v>0.06121667105038238</v>
-      </c>
-      <c r="I126">
-        <v>0.06681278963295842</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.06524521252447504</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1289588877942455</v>
+        <v>0.1517960916134629</v>
       </c>
       <c r="C127">
-        <v>0.1060064914303407</v>
+        <v>0.1318388762231087</v>
       </c>
       <c r="D127">
-        <v>0.1317099446092549</v>
+        <v>0.1541050154844379</v>
       </c>
       <c r="E127">
-        <v>0.144161043381659</v>
+        <v>0.1821986191350701</v>
       </c>
       <c r="F127">
-        <v>0.06537473468585825</v>
+        <v>0.08154305527308797</v>
       </c>
       <c r="G127">
-        <v>0.07015702116051573</v>
+        <v>0.08344439795633009</v>
       </c>
       <c r="H127">
-        <v>0.1709375672548492</v>
-      </c>
-      <c r="I127">
-        <v>0.1826943096832768</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.2150739443145023</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.04567827432241423</v>
+        <v>0.05703890533148639</v>
       </c>
       <c r="C128">
-        <v>0.06910934243930966</v>
+        <v>0.07838859196566701</v>
       </c>
       <c r="D128">
-        <v>0.2953747424691355</v>
+        <v>0.3231619666571706</v>
       </c>
       <c r="E128">
-        <v>0.3316177252163948</v>
+        <v>0.4137990880915369</v>
       </c>
       <c r="F128">
-        <v>0.05189268119224858</v>
+        <v>0.05533634722555486</v>
       </c>
       <c r="G128">
-        <v>0.03848661672667432</v>
+        <v>0.04191960318906723</v>
       </c>
       <c r="H128">
-        <v>0.02949497565515683</v>
-      </c>
-      <c r="I128">
-        <v>0.1383456419786662</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.03035549753951687</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.07809183665080459</v>
+        <v>0.08616391937317099</v>
       </c>
       <c r="C129">
-        <v>0.05583953149654062</v>
+        <v>0.06019878977251585</v>
       </c>
       <c r="D129">
-        <v>0.2565664309012328</v>
+        <v>0.2877336630951951</v>
       </c>
       <c r="E129">
-        <v>0.2601059564203324</v>
+        <v>0.2917031709991628</v>
       </c>
       <c r="F129">
-        <v>0.1355281467649294</v>
+        <v>0.1560498326708318</v>
       </c>
       <c r="G129">
-        <v>0.04911855090320443</v>
+        <v>0.05258576928449422</v>
       </c>
       <c r="H129">
-        <v>0.05969813688102098</v>
-      </c>
-      <c r="I129">
-        <v>0.1050514099819348</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.06556485480462915</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0264755560760818</v>
+        <v>0.02926347871595273</v>
       </c>
       <c r="C130">
-        <v>0.04286147283125812</v>
+        <v>0.04738678629728946</v>
       </c>
       <c r="D130">
-        <v>0.2243009313427527</v>
+        <v>0.237362094793129</v>
       </c>
       <c r="E130">
-        <v>0.3780511181588946</v>
+        <v>0.3936869789197124</v>
       </c>
       <c r="F130">
-        <v>0.1352485211559661</v>
+        <v>0.1518459263119889</v>
       </c>
       <c r="G130">
-        <v>0.08271751996924633</v>
+        <v>0.089632250043264</v>
       </c>
       <c r="H130">
-        <v>0.04750351436969129</v>
-      </c>
-      <c r="I130">
-        <v>0.06284136609610906</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.05082248491866333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.1718045175331837</v>
+        <v>0.198237374487057</v>
       </c>
       <c r="C131">
-        <v>0.1120779104403689</v>
+        <v>0.1295084179957329</v>
       </c>
       <c r="D131">
-        <v>0.1394430198776629</v>
+        <v>0.1652097414253629</v>
       </c>
       <c r="E131">
-        <v>0.1303717304421585</v>
+        <v>0.1521400137481893</v>
       </c>
       <c r="F131">
-        <v>0.07867449543782566</v>
+        <v>0.09390860280558772</v>
       </c>
       <c r="G131">
-        <v>0.06148299993498105</v>
+        <v>0.06805530071613822</v>
       </c>
       <c r="H131">
-        <v>0.1660336631041697</v>
-      </c>
-      <c r="I131">
-        <v>0.1401116632296498</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.192940548821932</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.1375179059894485</v>
+        <v>0.164963647163389</v>
       </c>
       <c r="C132">
-        <v>0.1377627250446995</v>
+        <v>0.1582659285626959</v>
       </c>
       <c r="D132">
-        <v>0.1357734204569325</v>
+        <v>0.1652120091048958</v>
       </c>
       <c r="E132">
-        <v>0.1331265500706926</v>
+        <v>0.1591700968980797</v>
       </c>
       <c r="F132">
-        <v>0.09868156839487921</v>
+        <v>0.1174210760843322</v>
       </c>
       <c r="G132">
-        <v>0.07719079149945435</v>
+        <v>0.09068594795595325</v>
       </c>
       <c r="H132">
-        <v>0.1272358689039226</v>
-      </c>
-      <c r="I132">
-        <v>0.1527111696399708</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.1442812942306543</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.1258440414430336</v>
+        <v>0.1410685774064115</v>
       </c>
       <c r="C133">
-        <v>0.1416750697998574</v>
+        <v>0.1572839509368343</v>
       </c>
       <c r="D133">
-        <v>0.1481758382505562</v>
+        <v>0.1675592908278731</v>
       </c>
       <c r="E133">
-        <v>0.1204686683240094</v>
+        <v>0.136263927542576</v>
       </c>
       <c r="F133">
-        <v>0.1500051953753102</v>
+        <v>0.1527564951697915</v>
       </c>
       <c r="G133">
-        <v>0.08735787273009174</v>
+        <v>0.09846476983085355</v>
       </c>
       <c r="H133">
-        <v>0.1293851270818764</v>
-      </c>
-      <c r="I133">
-        <v>0.09708818699526478</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.14660298828566</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.1394098678582288</v>
+        <v>0.1539590371089849</v>
       </c>
       <c r="C134">
-        <v>0.1385580480534089</v>
+        <v>0.1514593552862751</v>
       </c>
       <c r="D134">
-        <v>0.1121118123278359</v>
+        <v>0.1183974593402232</v>
       </c>
       <c r="E134">
-        <v>0.1077070535854923</v>
+        <v>0.1253881345277581</v>
       </c>
       <c r="F134">
-        <v>0.09852933468911604</v>
+        <v>0.1159143952992732</v>
       </c>
       <c r="G134">
-        <v>0.1711068920541476</v>
+        <v>0.2014377421837885</v>
       </c>
       <c r="H134">
-        <v>0.1194894966176513</v>
-      </c>
-      <c r="I134">
-        <v>0.1130874948141193</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.1334438762536971</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.1796312207177697</v>
+        <v>0.2104365631916324</v>
       </c>
       <c r="C135">
-        <v>0.1203603705755403</v>
+        <v>0.138136429720854</v>
       </c>
       <c r="D135">
-        <v>0.1105109159913746</v>
+        <v>0.136949226062219</v>
       </c>
       <c r="E135">
-        <v>0.1221706643034741</v>
+        <v>0.1516274092674502</v>
       </c>
       <c r="F135">
-        <v>0.06821736902601433</v>
+        <v>0.08024516725630973</v>
       </c>
       <c r="G135">
-        <v>0.0810958986798455</v>
+        <v>0.09484277574294143</v>
       </c>
       <c r="H135">
-        <v>0.1593802185103173</v>
-      </c>
-      <c r="I135">
-        <v>0.1586333421956642</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.1877624287585931</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.04704654630123045</v>
+        <v>0.05584407452993356</v>
       </c>
       <c r="C136">
-        <v>0.0985711933319534</v>
+        <v>0.1121765553479657</v>
       </c>
       <c r="D136">
-        <v>0.2436313790225411</v>
+        <v>0.2459799849236853</v>
       </c>
       <c r="E136">
-        <v>0.2653780463763636</v>
+        <v>0.2714399833668253</v>
       </c>
       <c r="F136">
-        <v>0.1356892760526342</v>
+        <v>0.1587082326008451</v>
       </c>
       <c r="G136">
-        <v>0.07942509842744618</v>
+        <v>0.08876295333994713</v>
       </c>
       <c r="H136">
-        <v>0.06182600736012202</v>
-      </c>
-      <c r="I136">
-        <v>0.06843245312770911</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.06708821589079808</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.1944229261990623</v>
+        <v>0.22709058141797</v>
       </c>
       <c r="C137">
-        <v>0.1096084687916052</v>
+        <v>0.1275424987323788</v>
       </c>
       <c r="D137">
-        <v>0.1321695696454256</v>
+        <v>0.152737015510708</v>
       </c>
       <c r="E137">
-        <v>0.1129735474886142</v>
+        <v>0.1314720025569289</v>
       </c>
       <c r="F137">
-        <v>0.06805958859999489</v>
+        <v>0.07617190885734602</v>
       </c>
       <c r="G137">
-        <v>0.06643243972324132</v>
+        <v>0.07558725359196036</v>
       </c>
       <c r="H137">
-        <v>0.1770808644362003</v>
-      </c>
-      <c r="I137">
-        <v>0.1392525951158561</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.2093987393327079</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.1762675549122399</v>
+        <v>0.204008122113838</v>
       </c>
       <c r="C138">
-        <v>0.1448868858578142</v>
+        <v>0.1597452666964294</v>
       </c>
       <c r="D138">
-        <v>0.1331795238540975</v>
+        <v>0.1520913462555803</v>
       </c>
       <c r="E138">
-        <v>0.1249893640344104</v>
+        <v>0.1388758983572551</v>
       </c>
       <c r="F138">
-        <v>0.06932212703163977</v>
+        <v>0.07717020152193699</v>
       </c>
       <c r="G138">
-        <v>0.0944148439131564</v>
+        <v>0.1057138831933495</v>
       </c>
       <c r="H138">
-        <v>0.1407363172062734</v>
-      </c>
-      <c r="I138">
-        <v>0.1162033831903685</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.1623952818616107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.1135879220188331</v>
+        <v>0.1453925764465027</v>
       </c>
       <c r="C139">
-        <v>0.1251193333130127</v>
+        <v>0.1460039413451899</v>
       </c>
       <c r="D139">
-        <v>0.1200035956706092</v>
+        <v>0.1513543159903111</v>
       </c>
       <c r="E139">
-        <v>0.1487045654534603</v>
+        <v>0.1808796540429858</v>
       </c>
       <c r="F139">
-        <v>0.0639325175619781</v>
+        <v>0.07611094353163592</v>
       </c>
       <c r="G139">
-        <v>0.09612715549433996</v>
+        <v>0.1155460025934053</v>
       </c>
       <c r="H139">
-        <v>0.1535466616806586</v>
-      </c>
-      <c r="I139">
-        <v>0.1789782488071081</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.1847125660499692</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.1217052122574462</v>
+        <v>0.1450643914338866</v>
       </c>
       <c r="C140">
-        <v>0.1097688225924301</v>
+        <v>0.1235648630924969</v>
       </c>
       <c r="D140">
-        <v>0.09171065814294438</v>
+        <v>0.09991202535152773</v>
       </c>
       <c r="E140">
-        <v>0.1172585754776594</v>
+        <v>0.1294869953392095</v>
       </c>
       <c r="F140">
-        <v>0.1285019734706667</v>
+        <v>0.1596025196259142</v>
       </c>
       <c r="G140">
-        <v>0.1723970137143629</v>
+        <v>0.2046278613416815</v>
       </c>
       <c r="H140">
-        <v>0.1224623314588364</v>
-      </c>
-      <c r="I140">
-        <v>0.1361954128856541</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.1377413438152835</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.1773393632514455</v>
+        <v>0.2153031499853996</v>
       </c>
       <c r="C141">
-        <v>0.09741554365854546</v>
+        <v>0.114523375024193</v>
       </c>
       <c r="D141">
-        <v>0.1057141603981488</v>
+        <v>0.1281396639256467</v>
       </c>
       <c r="E141">
-        <v>0.1170934333658491</v>
+        <v>0.1414767090892435</v>
       </c>
       <c r="F141">
-        <v>0.05507315820426613</v>
+        <v>0.06458972180789041</v>
       </c>
       <c r="G141">
-        <v>0.107401370098907</v>
+        <v>0.1271095054773443</v>
       </c>
       <c r="H141">
-        <v>0.1752378099901841</v>
-      </c>
-      <c r="I141">
-        <v>0.164725161032654</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.2088578746902825</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.1992568213724449</v>
+        <v>0.2154748742066152</v>
       </c>
       <c r="C142">
-        <v>0.1289214779256878</v>
+        <v>0.1543469951139772</v>
       </c>
       <c r="D142">
-        <v>0.1622067212115641</v>
+        <v>0.1870170694616697</v>
       </c>
       <c r="E142">
-        <v>0.1218745089820785</v>
+        <v>0.1431196681549589</v>
       </c>
       <c r="F142">
-        <v>0.06178027500593079</v>
+        <v>0.07714618518629932</v>
       </c>
       <c r="G142">
-        <v>0.06334818360947675</v>
+        <v>0.06955964842516295</v>
       </c>
       <c r="H142">
-        <v>0.1366102310036847</v>
-      </c>
-      <c r="I142">
-        <v>0.1260017808891325</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.1533355594513167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.1302882888803263</v>
+        <v>0.1444679153282912</v>
       </c>
       <c r="C143">
-        <v>0.1356711132871961</v>
+        <v>0.1499172757683504</v>
       </c>
       <c r="D143">
-        <v>0.1210122432286801</v>
+        <v>0.1350472894370507</v>
       </c>
       <c r="E143">
-        <v>0.1128094024665381</v>
+        <v>0.1229485197165609</v>
       </c>
       <c r="F143">
-        <v>0.1752203076859361</v>
+        <v>0.1950711942242475</v>
       </c>
       <c r="G143">
-        <v>0.09493254421343264</v>
+        <v>0.1080050330212927</v>
       </c>
       <c r="H143">
-        <v>0.1274169751854575</v>
-      </c>
-      <c r="I143">
-        <v>0.1026491250524332</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.1445427725042066</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.1365986915519712</v>
+        <v>0.1504491911861</v>
       </c>
       <c r="C144">
-        <v>0.1261171622369613</v>
+        <v>0.1384054234604161</v>
       </c>
       <c r="D144">
-        <v>0.09263074923552381</v>
+        <v>0.1049354138100603</v>
       </c>
       <c r="E144">
-        <v>0.1438252920616984</v>
+        <v>0.1643053885072514</v>
       </c>
       <c r="F144">
-        <v>0.133136269038217</v>
+        <v>0.156465527312637</v>
       </c>
       <c r="G144">
-        <v>0.1192341143319274</v>
+        <v>0.1387154264365519</v>
       </c>
       <c r="H144">
-        <v>0.1296548447977811</v>
-      </c>
-      <c r="I144">
-        <v>0.1188028767459198</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.1467236292869833</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.06941475233772837</v>
+        <v>0.07459487431041185</v>
       </c>
       <c r="C145">
-        <v>0.09716068346207334</v>
+        <v>0.1049125557543914</v>
       </c>
       <c r="D145">
-        <v>0.2391570110587536</v>
+        <v>0.2664624820178427</v>
       </c>
       <c r="E145">
-        <v>0.2350356745926984</v>
+        <v>0.2650942719994706</v>
       </c>
       <c r="F145">
-        <v>0.1522530887420501</v>
+        <v>0.1630514476696225</v>
       </c>
       <c r="G145">
-        <v>0.06314018837778516</v>
+        <v>0.06639250303409137</v>
       </c>
       <c r="H145">
-        <v>0.05312736540186729</v>
-      </c>
-      <c r="I145">
-        <v>0.09071123602704387</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.05949186521416967</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.172019731247042</v>
+        <v>0.2048180816760832</v>
       </c>
       <c r="C146">
-        <v>0.1161898466252235</v>
+        <v>0.1580978346158303</v>
       </c>
       <c r="D146">
-        <v>0.128705427545348</v>
+        <v>0.1691160394643843</v>
       </c>
       <c r="E146">
-        <v>0.1135199428983761</v>
+        <v>0.1364786781647291</v>
       </c>
       <c r="F146">
-        <v>0.05496670663880836</v>
+        <v>0.06076576255490653</v>
       </c>
       <c r="G146">
-        <v>0.09229909756480022</v>
+        <v>0.1054675483987191</v>
       </c>
       <c r="H146">
-        <v>0.1387002990204534</v>
-      </c>
-      <c r="I146">
-        <v>0.1835989484599483</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.1652560551253473</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.1586647204819862</v>
+        <v>0.1789238258069499</v>
       </c>
       <c r="C147">
-        <v>0.1337651462264985</v>
+        <v>0.1544209401375041</v>
       </c>
       <c r="D147">
-        <v>0.1472809018868831</v>
+        <v>0.175127796692777</v>
       </c>
       <c r="E147">
-        <v>0.1099147061505936</v>
+        <v>0.1238412648037649</v>
       </c>
       <c r="F147">
-        <v>0.07817784006432658</v>
+        <v>0.09676935248442439</v>
       </c>
       <c r="G147">
-        <v>0.08780363496308517</v>
+        <v>0.10033150060558</v>
       </c>
       <c r="H147">
-        <v>0.1455338784331831</v>
-      </c>
-      <c r="I147">
-        <v>0.1388591717934436</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.1705853194689999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.1034485878354943</v>
+        <v>0.1171647279516899</v>
       </c>
       <c r="C148">
-        <v>0.1214923880600438</v>
+        <v>0.1353740406646068</v>
       </c>
       <c r="D148">
-        <v>0.1314447011652397</v>
+        <v>0.1511797894075266</v>
       </c>
       <c r="E148">
-        <v>0.1432913706535087</v>
+        <v>0.161618277707343</v>
       </c>
       <c r="F148">
-        <v>0.1351072018573739</v>
+        <v>0.1551808332307893</v>
       </c>
       <c r="G148">
-        <v>0.132776919822126</v>
+        <v>0.1504929816686643</v>
       </c>
       <c r="H148">
-        <v>0.1097731481458991</v>
-      </c>
-      <c r="I148">
-        <v>0.1226656824603145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.12898934936938</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.04560885250750638</v>
+        <v>0.05228031317143779</v>
       </c>
       <c r="C149">
-        <v>0.08235613890959911</v>
+        <v>0.0911952938072548</v>
       </c>
       <c r="D149">
-        <v>0.2220772639547176</v>
+        <v>0.2445021815360147</v>
       </c>
       <c r="E149">
-        <v>0.2015897995988519</v>
+        <v>0.2246732132327257</v>
       </c>
       <c r="F149">
-        <v>0.1833409291446632</v>
+        <v>0.1944528923507266</v>
       </c>
       <c r="G149">
-        <v>0.09977648773677109</v>
+        <v>0.1066548820216725</v>
       </c>
       <c r="H149">
-        <v>0.07834411967154878</v>
-      </c>
-      <c r="I149">
-        <v>0.08690640847634197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.0862412238801679</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.06311201798536085</v>
+        <v>0.06750802466564945</v>
       </c>
       <c r="C150">
-        <v>0.1037979196725348</v>
+        <v>0.1133568926083361</v>
       </c>
       <c r="D150">
-        <v>0.2079057080570362</v>
+        <v>0.2145513922338048</v>
       </c>
       <c r="E150">
-        <v>0.2728350317227132</v>
+        <v>0.2930879892561274</v>
       </c>
       <c r="F150">
-        <v>0.1695764235776021</v>
+        <v>0.1854662753127481</v>
       </c>
       <c r="G150">
-        <v>0.060202080473423</v>
+        <v>0.06698960285619275</v>
       </c>
       <c r="H150">
-        <v>0.05301765392134968</v>
-      </c>
-      <c r="I150">
-        <v>0.06955316458998025</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.0590398230671414</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.1515068212839528</v>
+        <v>0.1625043732098777</v>
       </c>
       <c r="C151">
-        <v>0.1138838291746448</v>
+        <v>0.1309207204476477</v>
       </c>
       <c r="D151">
-        <v>0.135624747784587</v>
+        <v>0.1524386352809696</v>
       </c>
       <c r="E151">
-        <v>0.1167921188139659</v>
+        <v>0.1325763026281274</v>
       </c>
       <c r="F151">
-        <v>0.1699627405991555</v>
+        <v>0.1864498235673577</v>
       </c>
       <c r="G151">
-        <v>0.08438130466969915</v>
+        <v>0.09695330065074986</v>
       </c>
       <c r="H151">
-        <v>0.1180692597791791</v>
-      </c>
-      <c r="I151">
-        <v>0.1097791778948158</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.13815684421527</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.04607251239664933</v>
+        <v>0.0449426430771721</v>
       </c>
       <c r="C152">
-        <v>0.07115162158833341</v>
+        <v>0.07729470749155715</v>
       </c>
       <c r="D152">
-        <v>0.1932896042415638</v>
+        <v>0.208423192117975</v>
       </c>
       <c r="E152">
-        <v>0.2448752940250672</v>
+        <v>0.2890690274708244</v>
       </c>
       <c r="F152">
-        <v>0.169968744572035</v>
+        <v>0.1845662103996913</v>
       </c>
       <c r="G152">
-        <v>0.1076248839728517</v>
+        <v>0.1133036602780522</v>
       </c>
       <c r="H152">
-        <v>0.07698044090523522</v>
-      </c>
-      <c r="I152">
-        <v>0.0900368982982646</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.08240055916472795</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.07357785525291503</v>
+        <v>0.08446740634727487</v>
       </c>
       <c r="C153">
-        <v>0.1059011123233636</v>
+        <v>0.1152121225982075</v>
       </c>
       <c r="D153">
-        <v>0.1917514628417909</v>
+        <v>0.1996648004080234</v>
       </c>
       <c r="E153">
-        <v>0.2002880128237557</v>
+        <v>0.2056254093178072</v>
       </c>
       <c r="F153">
-        <v>0.2285712253782991</v>
+        <v>0.2527916858785137</v>
       </c>
       <c r="G153">
-        <v>0.08699617777129397</v>
+        <v>0.09222003585010788</v>
       </c>
       <c r="H153">
-        <v>0.04625207833500985</v>
-      </c>
-      <c r="I153">
-        <v>0.06666207527357171</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.05001853960006547</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.03678208483515697</v>
+        <v>0.0364325541563714</v>
       </c>
       <c r="C154">
-        <v>0.1056820911397263</v>
+        <v>0.1161789769393834</v>
       </c>
       <c r="D154">
-        <v>0.2000086794116064</v>
+        <v>0.19970745492588</v>
       </c>
       <c r="E154">
-        <v>0.204455408151724</v>
+        <v>0.1947489440080243</v>
       </c>
       <c r="F154">
-        <v>0.1588155157060835</v>
+        <v>0.1929662536351264</v>
       </c>
       <c r="G154">
-        <v>0.13739052863042</v>
+        <v>0.1662075497210138</v>
       </c>
       <c r="H154">
-        <v>0.07748549935017428</v>
-      </c>
-      <c r="I154">
-        <v>0.07938019277510834</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.09375826661420079</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.2092420018719669</v>
+        <v>0.2399591322030333</v>
       </c>
       <c r="C155">
-        <v>0.1200101570730734</v>
+        <v>0.1497946872480081</v>
       </c>
       <c r="D155">
-        <v>0.1354107959819861</v>
+        <v>0.1622950129446568</v>
       </c>
       <c r="E155">
-        <v>0.113857376724103</v>
+        <v>0.129782825565802</v>
       </c>
       <c r="F155">
-        <v>0.04917178153078203</v>
+        <v>0.05581333840541484</v>
       </c>
       <c r="G155">
-        <v>0.09019797764223202</v>
+        <v>0.1058028489603234</v>
       </c>
       <c r="H155">
-        <v>0.139207436301391</v>
-      </c>
-      <c r="I155">
-        <v>0.1429024728744656</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.1565521546727617</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.1524986313004984</v>
+        <v>0.1782119354750435</v>
       </c>
       <c r="C156">
-        <v>0.09869902148908986</v>
+        <v>0.1184366733498705</v>
       </c>
       <c r="D156">
-        <v>0.1294836850804015</v>
+        <v>0.1519638695472769</v>
       </c>
       <c r="E156">
-        <v>0.132562594379823</v>
+        <v>0.1571052254644394</v>
       </c>
       <c r="F156">
-        <v>0.0579933699294306</v>
+        <v>0.06925935817505482</v>
       </c>
       <c r="G156">
-        <v>0.1214558393334831</v>
+        <v>0.1524584213590432</v>
       </c>
       <c r="H156">
-        <v>0.140153753475941</v>
-      </c>
-      <c r="I156">
-        <v>0.1671531050113327</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.1725645166292718</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.1136267642361283</v>
+        <v>0.1326932377904421</v>
       </c>
       <c r="C157">
-        <v>0.1020749709817646</v>
+        <v>0.1208975912031762</v>
       </c>
       <c r="D157">
-        <v>0.1683834943915214</v>
+        <v>0.1941320322094801</v>
       </c>
       <c r="E157">
-        <v>0.1206345637724148</v>
+        <v>0.1444240076650196</v>
       </c>
       <c r="F157">
-        <v>0.09372265702415006</v>
+        <v>0.1110512778939</v>
       </c>
       <c r="G157">
-        <v>0.1031378005031338</v>
+        <v>0.1264722011593621</v>
       </c>
       <c r="H157">
-        <v>0.1359921008810702</v>
-      </c>
-      <c r="I157">
-        <v>0.162427648209817</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.1703296520786199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.05354894807909026</v>
+        <v>0.0598471246777481</v>
       </c>
       <c r="C158">
-        <v>0.09212496511369195</v>
+        <v>0.1035856051897603</v>
       </c>
       <c r="D158">
-        <v>0.2274969137648704</v>
+        <v>0.2641501714160301</v>
       </c>
       <c r="E158">
-        <v>0.2438852348112655</v>
+        <v>0.2826336316484687</v>
       </c>
       <c r="F158">
-        <v>0.1552778156484834</v>
+        <v>0.1774072606761579</v>
       </c>
       <c r="G158">
-        <v>0.06126379294978897</v>
+        <v>0.06537230890916551</v>
       </c>
       <c r="H158">
-        <v>0.04509784846298205</v>
-      </c>
-      <c r="I158">
-        <v>0.1213044811698276</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.04700389748266953</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.03071373004603784</v>
+        <v>0.03351177175252338</v>
       </c>
       <c r="C159">
-        <v>0.05033702870067779</v>
+        <v>0.05266212512136284</v>
       </c>
       <c r="D159">
-        <v>0.2291894309407633</v>
+        <v>0.2611364717934169</v>
       </c>
       <c r="E159">
-        <v>0.2707211713520326</v>
+        <v>0.3082047036381982</v>
       </c>
       <c r="F159">
-        <v>0.1990682283633524</v>
+        <v>0.2183001258214493</v>
       </c>
       <c r="G159">
-        <v>0.07246434492476748</v>
+        <v>0.07524135515241608</v>
       </c>
       <c r="H159">
-        <v>0.04932393632710784</v>
-      </c>
-      <c r="I159">
-        <v>0.09818212934526072</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.05094344672063338</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.07032168505955277</v>
+        <v>0.07030346160692084</v>
       </c>
       <c r="C160">
-        <v>0.05508607580683286</v>
+        <v>0.05994048990489122</v>
       </c>
       <c r="D160">
-        <v>0.2611437625398932</v>
+        <v>0.2573385432456906</v>
       </c>
       <c r="E160">
-        <v>0.3271923534720951</v>
+        <v>0.356823945548004</v>
       </c>
       <c r="F160">
-        <v>0.1674162758150487</v>
+        <v>0.1726902392649916</v>
       </c>
       <c r="G160">
-        <v>0.054178732408206</v>
+        <v>0.05822341178655763</v>
       </c>
       <c r="H160">
-        <v>0.02248947634874817</v>
-      </c>
-      <c r="I160">
-        <v>0.04217163854962311</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.02467990864294424</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.1367618490238204</v>
+        <v>0.1564824589179548</v>
       </c>
       <c r="C161">
-        <v>0.1218947050697224</v>
+        <v>0.1427140781338219</v>
       </c>
       <c r="D161">
-        <v>0.1410907025214476</v>
+        <v>0.1651848386205995</v>
       </c>
       <c r="E161">
-        <v>0.1300704287811924</v>
+        <v>0.1518368091532882</v>
       </c>
       <c r="F161">
-        <v>0.04802388912971466</v>
+        <v>0.05602335029244322</v>
       </c>
       <c r="G161">
-        <v>0.08651542196946264</v>
+        <v>0.1075466086790713</v>
       </c>
       <c r="H161">
-        <v>0.1876490231403799</v>
-      </c>
-      <c r="I161">
-        <v>0.14799398036426</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.220211856202821</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.03676869680718042</v>
+        <v>0.0452024241539572</v>
       </c>
       <c r="C162">
-        <v>0.06644392275637157</v>
+        <v>0.07508621856729294</v>
       </c>
       <c r="D162">
-        <v>0.2595603875277073</v>
+        <v>0.2839160773585052</v>
       </c>
       <c r="E162">
-        <v>0.1416233921511414</v>
+        <v>0.1659387767507559</v>
       </c>
       <c r="F162">
-        <v>0.1857371485700249</v>
+        <v>0.2037614952112408</v>
       </c>
       <c r="G162">
-        <v>0.1436718380627085</v>
+        <v>0.1551294378414189</v>
       </c>
       <c r="H162">
-        <v>0.06608763505068413</v>
-      </c>
-      <c r="I162">
-        <v>0.1001069790741818</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.07096557011682912</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.1107662418217809</v>
+        <v>0.137525750202179</v>
       </c>
       <c r="C163">
-        <v>0.09142213545284329</v>
+        <v>0.1083449502198854</v>
       </c>
       <c r="D163">
-        <v>0.08524393539725907</v>
+        <v>0.08830597744575107</v>
       </c>
       <c r="E163">
-        <v>0.08927416744731997</v>
+        <v>0.09879089679199687</v>
       </c>
       <c r="F163">
-        <v>0.1611092372544796</v>
+        <v>0.1991377924601393</v>
       </c>
       <c r="G163">
-        <v>0.2181605094006115</v>
+        <v>0.2535666163936621</v>
       </c>
       <c r="H163">
-        <v>0.105436674867665</v>
-      </c>
-      <c r="I163">
-        <v>0.1385870983580407</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.1143280164863862</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.1002251404176059</v>
+        <v>0.1140693693980238</v>
       </c>
       <c r="C164">
-        <v>0.1217476377747715</v>
+        <v>0.1405934828298804</v>
       </c>
       <c r="D164">
-        <v>0.1786141704254031</v>
+        <v>0.207471980612146</v>
       </c>
       <c r="E164">
-        <v>0.181844261246223</v>
+        <v>0.212647058631429</v>
       </c>
       <c r="F164">
-        <v>0.1464207692564738</v>
+        <v>0.1659831281699509</v>
       </c>
       <c r="G164">
-        <v>0.08062366460992634</v>
+        <v>0.08359959572792182</v>
       </c>
       <c r="H164">
-        <v>0.0701813861172723</v>
-      </c>
-      <c r="I164">
-        <v>0.120342970152324</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.0756353846306481</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.007529700756579625</v>
+        <v>0.008733395570405644</v>
       </c>
       <c r="C165">
-        <v>0.006500514107748408</v>
+        <v>0.007539665965069372</v>
       </c>
       <c r="D165">
-        <v>0.4460928147493563</v>
+        <v>0.4344210591063342</v>
       </c>
       <c r="E165">
-        <v>0.1530047563391769</v>
+        <v>0.166681462463908</v>
       </c>
       <c r="F165">
-        <v>0.137425228954787</v>
+        <v>0.1425984224845891</v>
       </c>
       <c r="G165">
-        <v>0.2008265473041244</v>
+        <v>0.2076872834329575</v>
       </c>
       <c r="H165">
-        <v>0.02992471367871478</v>
-      </c>
-      <c r="I165">
-        <v>0.0186957241095124</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.03233871097673616</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.04519600766815016</v>
+        <v>0.0498475854418217</v>
       </c>
       <c r="C166">
-        <v>0.08328497773237932</v>
+        <v>0.09227386049956521</v>
       </c>
       <c r="D166">
-        <v>0.2664635453839194</v>
+        <v>0.2834394467808655</v>
       </c>
       <c r="E166">
-        <v>0.2221802929410111</v>
+        <v>0.2555496296044662</v>
       </c>
       <c r="F166">
-        <v>0.1446318233891129</v>
+        <v>0.1585701711771514</v>
       </c>
       <c r="G166">
-        <v>0.08226718799177601</v>
+        <v>0.08986001034796082</v>
       </c>
       <c r="H166">
-        <v>0.06270695633680122</v>
-      </c>
-      <c r="I166">
-        <v>0.09326920855684986</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.07045929614816926</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.03340768819584891</v>
+        <v>0.03577306313429147</v>
       </c>
       <c r="C167">
-        <v>0.1184718383900762</v>
+        <v>0.1376977811734993</v>
       </c>
       <c r="D167">
-        <v>0.2630065409760227</v>
+        <v>0.2792204980175051</v>
       </c>
       <c r="E167">
-        <v>0.1891186829826424</v>
+        <v>0.1950169083207582</v>
       </c>
       <c r="F167">
-        <v>0.2072808502348408</v>
+        <v>0.2135822761968937</v>
       </c>
       <c r="G167">
-        <v>0.08519504936632001</v>
+        <v>0.09159557308742088</v>
       </c>
       <c r="H167">
-        <v>0.0435255632235103</v>
-      </c>
-      <c r="I167">
-        <v>0.05999378663073866</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.04711390006963137</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.2182704171958584</v>
+        <v>0.2453708753325862</v>
       </c>
       <c r="C168">
-        <v>0.0934563700082537</v>
+        <v>0.09948626403364939</v>
       </c>
       <c r="D168">
-        <v>0.1614302904477358</v>
+        <v>0.1881063934309176</v>
       </c>
       <c r="E168">
-        <v>0.1497419306015574</v>
+        <v>0.1747658324200634</v>
       </c>
       <c r="F168">
-        <v>0.04782533553922064</v>
+        <v>0.05149190499420126</v>
       </c>
       <c r="G168">
-        <v>0.05719009741276052</v>
+        <v>0.05989034087753008</v>
       </c>
       <c r="H168">
-        <v>0.1605021014177495</v>
-      </c>
-      <c r="I168">
-        <v>0.111583457376864</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.1808883889110522</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.138744940638198</v>
+        <v>0.1234749288322419</v>
       </c>
       <c r="C169">
-        <v>0.1161597572935726</v>
+        <v>0.1300569722535644</v>
       </c>
       <c r="D169">
-        <v>0.1947399835992644</v>
+        <v>0.2422284099898371</v>
       </c>
       <c r="E169">
-        <v>0.1211967611901853</v>
+        <v>0.1347402336542696</v>
       </c>
       <c r="F169">
-        <v>0.04205713902196104</v>
+        <v>0.04622935162103689</v>
       </c>
       <c r="G169">
-        <v>0.09538148701449442</v>
+        <v>0.1076530617304618</v>
       </c>
       <c r="H169">
-        <v>0.1738569229353427</v>
-      </c>
-      <c r="I169">
-        <v>0.1178630083069816</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.2156170419185882</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.1281961198006192</v>
+        <v>0.1599149574321871</v>
       </c>
       <c r="C170">
-        <v>0.09684551209369267</v>
+        <v>0.1199359653060114</v>
       </c>
       <c r="D170">
-        <v>0.1453107669704765</v>
+        <v>0.1757700367347607</v>
       </c>
       <c r="E170">
-        <v>0.1616432583633974</v>
+        <v>0.1894940990102145</v>
       </c>
       <c r="F170">
-        <v>0.05745437429564405</v>
+        <v>0.06713321563189653</v>
       </c>
       <c r="G170">
-        <v>0.07905046459074229</v>
+        <v>0.09082308020273036</v>
       </c>
       <c r="H170">
-        <v>0.1585686982662313</v>
-      </c>
-      <c r="I170">
-        <v>0.1729308056191964</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.1969286456821994</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.03880790872267535</v>
+        <v>0.04281442273430193</v>
       </c>
       <c r="C171">
-        <v>0.05935227563068596</v>
+        <v>0.06481779270943272</v>
       </c>
       <c r="D171">
-        <v>0.278253205006434</v>
+        <v>0.3145104086803687</v>
       </c>
       <c r="E171">
-        <v>0.2795369677913591</v>
+        <v>0.319259301671476</v>
       </c>
       <c r="F171">
-        <v>0.1566423487751218</v>
+        <v>0.1818879413916047</v>
       </c>
       <c r="G171">
-        <v>0.04116937987930469</v>
+        <v>0.04269513097802596</v>
       </c>
       <c r="H171">
-        <v>0.03300566049824982</v>
-      </c>
-      <c r="I171">
-        <v>0.1132322536961693</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.03401500183478995</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.08424743031345511</v>
+        <v>0.07823908091989196</v>
       </c>
       <c r="C172">
-        <v>0.1019679582217195</v>
+        <v>0.1307329418746951</v>
       </c>
       <c r="D172">
-        <v>0.1122542417408085</v>
+        <v>0.1552244171747071</v>
       </c>
       <c r="E172">
-        <v>0.1681335702630967</v>
+        <v>0.231657118570064</v>
       </c>
       <c r="F172">
-        <v>0.07956642507578204</v>
+        <v>0.09944784938002815</v>
       </c>
       <c r="G172">
-        <v>0.1316611264893092</v>
+        <v>0.1477193463470844</v>
       </c>
       <c r="H172">
-        <v>0.1226027271547694</v>
-      </c>
-      <c r="I172">
-        <v>0.1995665207410595</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.1569792457335293</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1462440445378953</v>
+        <v>0.1713720410580188</v>
       </c>
       <c r="C173">
-        <v>0.1409115250374933</v>
+        <v>0.156607676243731</v>
       </c>
       <c r="D173">
-        <v>0.1109100999893032</v>
+        <v>0.1258854511886143</v>
       </c>
       <c r="E173">
-        <v>0.1156389395965243</v>
+        <v>0.1321266207557369</v>
       </c>
       <c r="F173">
-        <v>0.1474084733599828</v>
+        <v>0.1607231423752492</v>
       </c>
       <c r="G173">
-        <v>0.08919675408055164</v>
+        <v>0.1018013636100475</v>
       </c>
       <c r="H173">
-        <v>0.1334870023849093</v>
-      </c>
-      <c r="I173">
-        <v>0.1162031610133402</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.1514837047686021</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.02977841655673533</v>
+        <v>0.03118073371218203</v>
       </c>
       <c r="C174">
-        <v>0.1155150947296281</v>
+        <v>0.1255849882191076</v>
       </c>
       <c r="D174">
-        <v>0.1809223871745974</v>
+        <v>0.18288419422008</v>
       </c>
       <c r="E174">
-        <v>0.2712106961836483</v>
+        <v>0.2870126768426672</v>
       </c>
       <c r="F174">
-        <v>0.2088846633246057</v>
+        <v>0.2285052948290641</v>
       </c>
       <c r="G174">
-        <v>0.09905345408789705</v>
+        <v>0.1050031361618263</v>
       </c>
       <c r="H174">
-        <v>0.03770973711502961</v>
-      </c>
-      <c r="I174">
-        <v>0.05692555082785855</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.03982897601507292</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.07145325392248024</v>
+        <v>0.08055115995772628</v>
       </c>
       <c r="C175">
-        <v>0.1609186426735053</v>
+        <v>0.1709421595792666</v>
       </c>
       <c r="D175">
-        <v>0.1802586588366899</v>
+        <v>0.1984853518131321</v>
       </c>
       <c r="E175">
-        <v>0.2328369624521048</v>
+        <v>0.2617719682337419</v>
       </c>
       <c r="F175">
-        <v>0.163687766364501</v>
+        <v>0.1713307228653538</v>
       </c>
       <c r="G175">
-        <v>0.06492235416695891</v>
+        <v>0.06849737214621447</v>
       </c>
       <c r="H175">
-        <v>0.04512951823514346</v>
-      </c>
-      <c r="I175">
-        <v>0.08079284334861639</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.04842126540456496</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.1242880944019002</v>
+        <v>0.142109865724875</v>
       </c>
       <c r="C176">
-        <v>0.1320407772954048</v>
+        <v>0.1498087394437871</v>
       </c>
       <c r="D176">
-        <v>0.1162330688285305</v>
+        <v>0.1341776155820122</v>
       </c>
       <c r="E176">
-        <v>0.1109391962172963</v>
+        <v>0.1228612510737813</v>
       </c>
       <c r="F176">
-        <v>0.1628100414081947</v>
+        <v>0.1827232903187289</v>
       </c>
       <c r="G176">
-        <v>0.1151566543668538</v>
+        <v>0.135166053051247</v>
       </c>
       <c r="H176">
-        <v>0.1157755389320009</v>
-      </c>
-      <c r="I176">
-        <v>0.1227566285498189</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.1331531848055684</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.04688430330034715</v>
+        <v>0.05098337673541692</v>
       </c>
       <c r="C177">
-        <v>0.05699486646110846</v>
+        <v>0.06183657415736558</v>
       </c>
       <c r="D177">
-        <v>0.231056232916197</v>
+        <v>0.2558762620548552</v>
       </c>
       <c r="E177">
-        <v>0.2590552088786554</v>
+        <v>0.2828912934548009</v>
       </c>
       <c r="F177">
-        <v>0.2009794637966283</v>
+        <v>0.2195957546538547</v>
       </c>
       <c r="G177">
-        <v>0.06422534555983002</v>
+        <v>0.06655259950771657</v>
       </c>
       <c r="H177">
-        <v>0.06021436657844837</v>
-      </c>
-      <c r="I177">
-        <v>0.0805902125087853</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.06226413943599016</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.05422222223024344</v>
+        <v>0.0594278146299831</v>
       </c>
       <c r="C178">
-        <v>0.08253114159566419</v>
+        <v>0.08658915653332333</v>
       </c>
       <c r="D178">
-        <v>0.2442181630540459</v>
+        <v>0.247504263962827</v>
       </c>
       <c r="E178">
-        <v>0.1942053233427969</v>
+        <v>0.1975308909749382</v>
       </c>
       <c r="F178">
-        <v>0.2057397997438692</v>
+        <v>0.2258006455370906</v>
       </c>
       <c r="G178">
-        <v>0.1237894821818301</v>
+        <v>0.143723197367392</v>
       </c>
       <c r="H178">
-        <v>0.03592274540397906</v>
-      </c>
-      <c r="I178">
-        <v>0.05937112244757134</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.03942403099444584</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.0765168763862862</v>
+        <v>0.1051722008915552</v>
       </c>
       <c r="C179">
-        <v>0.1060639150808735</v>
+        <v>0.13166025589061</v>
       </c>
       <c r="D179">
-        <v>0.1505195375486293</v>
+        <v>0.1747829227236284</v>
       </c>
       <c r="E179">
-        <v>0.162351367069518</v>
+        <v>0.1874026232644216</v>
       </c>
       <c r="F179">
-        <v>0.08488404051836809</v>
+        <v>0.1015703591371174</v>
       </c>
       <c r="G179">
-        <v>0.08741334249347076</v>
+        <v>0.1069327941035005</v>
       </c>
       <c r="H179">
-        <v>0.1585245407513172</v>
-      </c>
-      <c r="I179">
-        <v>0.1737263801515371</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.192478843989167</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.04278988859689751</v>
+        <v>0.0435459290483441</v>
       </c>
       <c r="C180">
-        <v>0.08789982620835177</v>
+        <v>0.1002562243310603</v>
       </c>
       <c r="D180">
-        <v>0.2580400718083826</v>
+        <v>0.2834418631271985</v>
       </c>
       <c r="E180">
-        <v>0.2116194902759646</v>
+        <v>0.2374281566708184</v>
       </c>
       <c r="F180">
-        <v>0.1364186641145197</v>
+        <v>0.1506981660315506</v>
       </c>
       <c r="G180">
-        <v>0.1243993965086695</v>
+        <v>0.1353273134458587</v>
       </c>
       <c r="H180">
-        <v>0.04666097205899449</v>
-      </c>
-      <c r="I180">
-        <v>0.09217169042821978</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.04930234734516931</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.05090662189381376</v>
+        <v>0.05233920986441686</v>
       </c>
       <c r="C181">
-        <v>0.1150912296460545</v>
+        <v>0.1265324949686948</v>
       </c>
       <c r="D181">
-        <v>0.1909476331471094</v>
+        <v>0.2107677243240763</v>
       </c>
       <c r="E181">
-        <v>0.2183512850690175</v>
+        <v>0.2289372176199662</v>
       </c>
       <c r="F181">
-        <v>0.1868646963606699</v>
+        <v>0.2074750903862302</v>
       </c>
       <c r="G181">
-        <v>0.08400021064580319</v>
+        <v>0.0987211196516195</v>
       </c>
       <c r="H181">
-        <v>0.06734543100827969</v>
-      </c>
-      <c r="I181">
-        <v>0.08649289222925213</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.07522714318499613</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.1316637151401789</v>
+        <v>0.172359247977308</v>
       </c>
       <c r="C182">
-        <v>0.1056237969891641</v>
+        <v>0.1336227768640205</v>
       </c>
       <c r="D182">
-        <v>0.1283482804505598</v>
+        <v>0.1710478633358818</v>
       </c>
       <c r="E182">
-        <v>0.1295596264050716</v>
+        <v>0.1694033787917932</v>
       </c>
       <c r="F182">
-        <v>0.06651214446248793</v>
+        <v>0.08214205272844678</v>
       </c>
       <c r="G182">
-        <v>0.0863500814269464</v>
+        <v>0.1082196327289449</v>
       </c>
       <c r="H182">
-        <v>0.1275873299948215</v>
-      </c>
-      <c r="I182">
-        <v>0.2243550251307699</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.1632050475736049</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.1639887359711561</v>
+        <v>0.1960342388973851</v>
       </c>
       <c r="C183">
-        <v>0.1001986168569659</v>
+        <v>0.1199663429093776</v>
       </c>
       <c r="D183">
-        <v>0.1295712079966074</v>
+        <v>0.1483298165685825</v>
       </c>
       <c r="E183">
-        <v>0.1355055942225171</v>
+        <v>0.1567971480727066</v>
       </c>
       <c r="F183">
-        <v>0.05863967334316447</v>
+        <v>0.06970132213300044</v>
       </c>
       <c r="G183">
-        <v>0.08644407487662735</v>
+        <v>0.1060220244163879</v>
       </c>
       <c r="H183">
-        <v>0.1734231989802694</v>
-      </c>
-      <c r="I183">
-        <v>0.1522288977526921</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.2031491070025598</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.1318319127905251</v>
+        <v>0.1462163155822972</v>
       </c>
       <c r="C184">
-        <v>0.1445333355678496</v>
+        <v>0.1642535445190039</v>
       </c>
       <c r="D184">
-        <v>0.1268805011556626</v>
+        <v>0.1406571218012105</v>
       </c>
       <c r="E184">
-        <v>0.1194314708462324</v>
+        <v>0.1340515056704326</v>
       </c>
       <c r="F184">
-        <v>0.1560741963121554</v>
+        <v>0.1752466212825849</v>
       </c>
       <c r="G184">
-        <v>0.09635726910385808</v>
+        <v>0.1106424816006908</v>
       </c>
       <c r="H184">
-        <v>0.1141169057225248</v>
-      </c>
-      <c r="I184">
-        <v>0.1107744085011921</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.1289324095437803</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.05083521929976497</v>
+        <v>0.05618769485569287</v>
       </c>
       <c r="C185">
-        <v>0.0932057991371147</v>
+        <v>0.1060098212871157</v>
       </c>
       <c r="D185">
-        <v>0.2467993305698926</v>
+        <v>0.269268251792514</v>
       </c>
       <c r="E185">
-        <v>0.2438084246057083</v>
+        <v>0.2735347247544194</v>
       </c>
       <c r="F185">
-        <v>0.1521328207852837</v>
+        <v>0.1632624617757963</v>
       </c>
       <c r="G185">
-        <v>0.05120637335496759</v>
+        <v>0.05686913557883722</v>
       </c>
       <c r="H185">
-        <v>0.06736198283107739</v>
-      </c>
-      <c r="I185">
-        <v>0.09465004941619078</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.07486790995562456</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.1128661926055227</v>
+        <v>0.1330759613985773</v>
       </c>
       <c r="C186">
-        <v>0.09579436820313807</v>
+        <v>0.1224673023456794</v>
       </c>
       <c r="D186">
-        <v>0.175743458232483</v>
+        <v>0.2014364396133474</v>
       </c>
       <c r="E186">
-        <v>0.1069252082849654</v>
+        <v>0.131598485328767</v>
       </c>
       <c r="F186">
-        <v>0.09118249520861119</v>
+        <v>0.1092524912110948</v>
       </c>
       <c r="G186">
-        <v>0.09470813623689077</v>
+        <v>0.1150610206580442</v>
       </c>
       <c r="H186">
-        <v>0.1581391798094765</v>
-      </c>
-      <c r="I186">
-        <v>0.1646409614189123</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.1871082994444898</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.1160439569947878</v>
+        <v>0.1427841952142972</v>
       </c>
       <c r="C187">
-        <v>0.1035626538384364</v>
+        <v>0.1247443066710534</v>
       </c>
       <c r="D187">
-        <v>0.1215066107579174</v>
+        <v>0.1386256717876829</v>
       </c>
       <c r="E187">
-        <v>0.1042741196141371</v>
+        <v>0.1195243378997076</v>
       </c>
       <c r="F187">
-        <v>0.1183469870305544</v>
+        <v>0.134495323677524</v>
       </c>
       <c r="G187">
-        <v>0.1828320033298571</v>
+        <v>0.2033333749524771</v>
       </c>
       <c r="H187">
-        <v>0.1137721660696456</v>
-      </c>
-      <c r="I187">
-        <v>0.1396615023646642</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.1364927897972579</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.07751875740361856</v>
+        <v>0.1175377814494643</v>
       </c>
       <c r="C188">
-        <v>0.1274085128849387</v>
+        <v>0.1549096724618524</v>
       </c>
       <c r="D188">
-        <v>0.1475467351678003</v>
+        <v>0.1771893332989673</v>
       </c>
       <c r="E188">
-        <v>0.1629057327878644</v>
+        <v>0.1972491636168381</v>
       </c>
       <c r="F188">
-        <v>0.08239282326640177</v>
+        <v>0.1051569850659153</v>
       </c>
       <c r="G188">
-        <v>0.0788688710746324</v>
+        <v>0.100824861235226</v>
       </c>
       <c r="H188">
-        <v>0.1066948970338306</v>
-      </c>
-      <c r="I188">
-        <v>0.2166636703809134</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.1471322028717366</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.1165164582923724</v>
+        <v>0.1306753952132894</v>
       </c>
       <c r="C189">
-        <v>0.116585671281931</v>
+        <v>0.1262753744454651</v>
       </c>
       <c r="D189">
-        <v>0.1322283143833859</v>
+        <v>0.1533265798361202</v>
       </c>
       <c r="E189">
-        <v>0.1391366779794197</v>
+        <v>0.1625798595388855</v>
       </c>
       <c r="F189">
-        <v>0.1430692634280633</v>
+        <v>0.1599810462223491</v>
       </c>
       <c r="G189">
-        <v>0.1084019183576117</v>
+        <v>0.126982624127255</v>
       </c>
       <c r="H189">
-        <v>0.1258901910617357</v>
-      </c>
-      <c r="I189">
-        <v>0.1181715052154803</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.1401791206166356</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.07609613428403836</v>
+        <v>0.09731667834230379</v>
       </c>
       <c r="C190">
-        <v>0.1051088448223992</v>
+        <v>0.1296353102469786</v>
       </c>
       <c r="D190">
-        <v>0.09004093521092624</v>
+        <v>0.1110510358367641</v>
       </c>
       <c r="E190">
-        <v>0.146715633176812</v>
+        <v>0.1753530111322578</v>
       </c>
       <c r="F190">
-        <v>0.09524915459734871</v>
+        <v>0.1105581272547128</v>
       </c>
       <c r="G190">
-        <v>0.1388018353011343</v>
+        <v>0.165835422242119</v>
       </c>
       <c r="H190">
-        <v>0.1756038425845021</v>
-      </c>
-      <c r="I190">
-        <v>0.172383620022839</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.2102504149448639</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.04924627748191012</v>
+        <v>0.05607522920180418</v>
       </c>
       <c r="C191">
-        <v>0.08873014730464414</v>
+        <v>0.09658374200065466</v>
       </c>
       <c r="D191">
-        <v>0.2290526404829984</v>
+        <v>0.236437542675021</v>
       </c>
       <c r="E191">
-        <v>0.3065379531977782</v>
+        <v>0.3347997470506821</v>
       </c>
       <c r="F191">
-        <v>0.1466306780282216</v>
+        <v>0.1652450253082187</v>
       </c>
       <c r="G191">
-        <v>0.05554874397718466</v>
+        <v>0.05830908116765973</v>
       </c>
       <c r="H191">
-        <v>0.04831848527424295</v>
-      </c>
-      <c r="I191">
-        <v>0.07593507425302005</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.05254963259595968</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.1550724441327874</v>
+        <v>0.1721102686546717</v>
       </c>
       <c r="C192">
-        <v>0.1197330540165847</v>
+        <v>0.1348865916623503</v>
       </c>
       <c r="D192">
-        <v>0.1232894729533778</v>
+        <v>0.137803112564593</v>
       </c>
       <c r="E192">
-        <v>0.1132268473396159</v>
+        <v>0.1253335060142677</v>
       </c>
       <c r="F192">
-        <v>0.1766592523699938</v>
+        <v>0.2016000907859352</v>
       </c>
       <c r="G192">
-        <v>0.09018916468565165</v>
+        <v>0.1016835288333861</v>
       </c>
       <c r="H192">
-        <v>0.1116461782168153</v>
-      </c>
-      <c r="I192">
-        <v>0.1101835862851734</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.126582901484796</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.1029335038071753</v>
+        <v>0.1137227575915106</v>
       </c>
       <c r="C193">
-        <v>0.112419142173678</v>
+        <v>0.1206136778759824</v>
       </c>
       <c r="D193">
-        <v>0.154726491715942</v>
+        <v>0.1767575245698639</v>
       </c>
       <c r="E193">
-        <v>0.1554714609561512</v>
+        <v>0.1767551732175258</v>
       </c>
       <c r="F193">
-        <v>0.1541401433858703</v>
+        <v>0.1713001340119575</v>
       </c>
       <c r="G193">
-        <v>0.09613738445996418</v>
+        <v>0.1115623883655093</v>
       </c>
       <c r="H193">
-        <v>0.1174113099571001</v>
-      </c>
-      <c r="I193">
-        <v>0.1067605635441188</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.1292883443676505</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.08387946440926912</v>
+        <v>0.09634284917200465</v>
       </c>
       <c r="C194">
-        <v>0.09685776295509847</v>
+        <v>0.1086214991830292</v>
       </c>
       <c r="D194">
-        <v>0.1566689305402175</v>
+        <v>0.1799774299282985</v>
       </c>
       <c r="E194">
-        <v>0.1746945046056911</v>
+        <v>0.1963272483482928</v>
       </c>
       <c r="F194">
-        <v>0.1879439246789427</v>
+        <v>0.2034198779943265</v>
       </c>
       <c r="G194">
-        <v>0.1034720111447475</v>
+        <v>0.1148041630080824</v>
       </c>
       <c r="H194">
-        <v>0.08923234218978777</v>
-      </c>
-      <c r="I194">
-        <v>0.1072510594762457</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.1005069323659661</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.09161759599273357</v>
+        <v>0.1013721483341146</v>
       </c>
       <c r="C195">
-        <v>0.108121555835332</v>
+        <v>0.1232751044450602</v>
       </c>
       <c r="D195">
-        <v>0.1760283287074927</v>
+        <v>0.2033556362082856</v>
       </c>
       <c r="E195">
-        <v>0.2001645220228222</v>
+        <v>0.2319793812381878</v>
       </c>
       <c r="F195">
-        <v>0.1415096856870484</v>
+        <v>0.1628489583603518</v>
       </c>
       <c r="G195">
-        <v>0.07421934032549111</v>
+        <v>0.07755445654260949</v>
       </c>
       <c r="H195">
-        <v>0.09155751244673047</v>
-      </c>
-      <c r="I195">
-        <v>0.1167814589823495</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.09961431487139057</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.04492467661066276</v>
+        <v>0.05168740865991447</v>
       </c>
       <c r="C196">
-        <v>0.08683300619079658</v>
+        <v>0.1017147886456388</v>
       </c>
       <c r="D196">
-        <v>0.2418607610688332</v>
+        <v>0.2447956120513034</v>
       </c>
       <c r="E196">
-        <v>0.2827540329948389</v>
+        <v>0.2845322889857417</v>
       </c>
       <c r="F196">
-        <v>0.1188962269472959</v>
+        <v>0.1382126002440481</v>
       </c>
       <c r="G196">
-        <v>0.0857609313036934</v>
+        <v>0.09840045454712018</v>
       </c>
       <c r="H196">
-        <v>0.07171182177504028</v>
-      </c>
-      <c r="I196">
-        <v>0.06725854310883882</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.08065684686623326</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.1501546514823852</v>
+        <v>0.1664772328229508</v>
       </c>
       <c r="C197">
-        <v>0.1378152795495977</v>
+        <v>0.1546050951027892</v>
       </c>
       <c r="D197">
-        <v>0.1261512683186638</v>
+        <v>0.1437592183714204</v>
       </c>
       <c r="E197">
-        <v>0.105283305472073</v>
+        <v>0.1179943122741472</v>
       </c>
       <c r="F197">
-        <v>0.169493416494594</v>
+        <v>0.1859372879740953</v>
       </c>
       <c r="G197">
-        <v>0.07971528509718342</v>
+        <v>0.09108097304409285</v>
       </c>
       <c r="H197">
-        <v>0.1249179604180122</v>
-      </c>
-      <c r="I197">
-        <v>0.1064688331674908</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.1401458804105045</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.1705158933462991</v>
+        <v>0.2004300204896982</v>
       </c>
       <c r="C198">
-        <v>0.1289725448916762</v>
+        <v>0.1521780430840668</v>
       </c>
       <c r="D198">
-        <v>0.1320377791848183</v>
+        <v>0.1527011878761503</v>
       </c>
       <c r="E198">
-        <v>0.1351507387034</v>
+        <v>0.1635887427814799</v>
       </c>
       <c r="F198">
-        <v>0.06143322855489011</v>
+        <v>0.07445298917644225</v>
       </c>
       <c r="G198">
-        <v>0.07993352504045102</v>
+        <v>0.09467836923523507</v>
       </c>
       <c r="H198">
-        <v>0.1412704812706458</v>
-      </c>
-      <c r="I198">
-        <v>0.1506858090078198</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.1619706473569275</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.1699704107978334</v>
+        <v>0.1993121592821086</v>
       </c>
       <c r="C199">
-        <v>0.1275091260355438</v>
+        <v>0.1417700310406818</v>
       </c>
       <c r="D199">
-        <v>0.1493331037458153</v>
+        <v>0.17344067112171</v>
       </c>
       <c r="E199">
-        <v>0.1228297725625467</v>
+        <v>0.1449255390394778</v>
       </c>
       <c r="F199">
-        <v>0.05235990664711484</v>
+        <v>0.06067110849160492</v>
       </c>
       <c r="G199">
-        <v>0.09747748483396627</v>
+        <v>0.1108974000618269</v>
       </c>
       <c r="H199">
-        <v>0.1453953454125688</v>
-      </c>
-      <c r="I199">
-        <v>0.135124849964611</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>0.1689830909625901</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.07291559967490795</v>
+        <v>0.08227462960069237</v>
       </c>
       <c r="C200">
-        <v>0.08538191758795506</v>
+        <v>0.1025105363932124</v>
       </c>
       <c r="D200">
-        <v>0.1352758952021801</v>
+        <v>0.1622734730244442</v>
       </c>
       <c r="E200">
-        <v>0.1482021847798902</v>
+        <v>0.1812324896982574</v>
       </c>
       <c r="F200">
-        <v>0.1243198296074109</v>
+        <v>0.1399690644675698</v>
       </c>
       <c r="G200">
-        <v>0.1825632469271316</v>
+        <v>0.224180778588721</v>
       </c>
       <c r="H200">
-        <v>0.09563860773143787</v>
-      </c>
-      <c r="I200">
-        <v>0.1557027184890863</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>0.1075590282271027</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.1524351222580114</v>
+        <v>0.1761316781801849</v>
       </c>
       <c r="C201">
-        <v>0.1119012384249127</v>
+        <v>0.1261969504858612</v>
       </c>
       <c r="D201">
-        <v>0.1456346193157195</v>
+        <v>0.17812001444378</v>
       </c>
       <c r="E201">
-        <v>0.1580112085037755</v>
+        <v>0.1926595398617468</v>
       </c>
       <c r="F201">
-        <v>0.06270282643858169</v>
+        <v>0.07041776291822809</v>
       </c>
       <c r="G201">
-        <v>0.0831872418015715</v>
+        <v>0.09330325384155222</v>
       </c>
       <c r="H201">
-        <v>0.1484599380278914</v>
-      </c>
-      <c r="I201">
-        <v>0.1376678052295362</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>0.1631708002686468</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.1635037819092145</v>
+        <v>0.1934091362166525</v>
       </c>
       <c r="C202">
-        <v>0.1196482921863615</v>
+        <v>0.1379259390339677</v>
       </c>
       <c r="D202">
-        <v>0.1321306864393771</v>
+        <v>0.1576937588521548</v>
       </c>
       <c r="E202">
-        <v>0.1256102449529877</v>
+        <v>0.1461789023704617</v>
       </c>
       <c r="F202">
-        <v>0.07247149173731104</v>
+        <v>0.08289573627730594</v>
       </c>
       <c r="G202">
-        <v>0.08709832643560983</v>
+        <v>0.100162553416606</v>
       </c>
       <c r="H202">
-        <v>0.1569477458131356</v>
-      </c>
-      <c r="I202">
-        <v>0.1425894305260028</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>0.1817339738328516</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.1224422419408591</v>
+        <v>0.1489034980027396</v>
       </c>
       <c r="C203">
-        <v>0.1196586407157127</v>
+        <v>0.1390373380149332</v>
       </c>
       <c r="D203">
-        <v>0.1625889400052388</v>
+        <v>0.1894439090437144</v>
       </c>
       <c r="E203">
-        <v>0.1185838057179835</v>
+        <v>0.1417372813317197</v>
       </c>
       <c r="F203">
-        <v>0.05746081166496074</v>
+        <v>0.06975361251435434</v>
       </c>
       <c r="G203">
-        <v>0.1087266158195055</v>
+        <v>0.1317755377476038</v>
       </c>
       <c r="H203">
-        <v>0.153007788007401</v>
-      </c>
-      <c r="I203">
-        <v>0.1575311561283388</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>0.179348823344935</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.1323658181250159</v>
+        <v>0.1584208763370082</v>
       </c>
       <c r="C204">
-        <v>0.1222584157052551</v>
+        <v>0.1377130977036473</v>
       </c>
       <c r="D204">
-        <v>0.119707791476287</v>
+        <v>0.1316403448060983</v>
       </c>
       <c r="E204">
-        <v>0.1128229887859874</v>
+        <v>0.129290061779566</v>
       </c>
       <c r="F204">
-        <v>0.1653249394986615</v>
+        <v>0.190617448811109</v>
       </c>
       <c r="G204">
-        <v>0.08751371768498219</v>
+        <v>0.1022373425370634</v>
       </c>
       <c r="H204">
-        <v>0.1360029425361586</v>
-      </c>
-      <c r="I204">
-        <v>0.1240033861876522</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>0.1500808280255079</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.07738818130566764</v>
+        <v>0.1024691514315382</v>
       </c>
       <c r="C205">
-        <v>0.1276964959809253</v>
+        <v>0.1496702753190575</v>
       </c>
       <c r="D205">
-        <v>0.1695943164450917</v>
+        <v>0.1930542318036233</v>
       </c>
       <c r="E205">
-        <v>0.1768235155104477</v>
+        <v>0.2006487430564696</v>
       </c>
       <c r="F205">
-        <v>0.0789833397562883</v>
+        <v>0.09715690930509643</v>
       </c>
       <c r="G205">
-        <v>0.08742616950845364</v>
+        <v>0.1041135281637985</v>
       </c>
       <c r="H205">
-        <v>0.1184769891556429</v>
-      </c>
-      <c r="I205">
-        <v>0.1636109923374829</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>0.1528871609204163</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.1580159411582191</v>
+        <v>0.1827443745309715</v>
       </c>
       <c r="C206">
-        <v>0.1275131328794043</v>
+        <v>0.1471361463878391</v>
       </c>
       <c r="D206">
-        <v>0.1400560212355789</v>
+        <v>0.161745574949027</v>
       </c>
       <c r="E206">
-        <v>0.1102414776430213</v>
+        <v>0.1269689553495991</v>
       </c>
       <c r="F206">
-        <v>0.07846408831990316</v>
+        <v>0.08982749035956372</v>
       </c>
       <c r="G206">
-        <v>0.1004220766721362</v>
+        <v>0.1179962719833734</v>
       </c>
       <c r="H206">
-        <v>0.1528423543965367</v>
-      </c>
-      <c r="I206">
-        <v>0.1324449076952003</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>0.1735811864396262</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.1814456575676208</v>
+        <v>0.1979260765324675</v>
       </c>
       <c r="C207">
-        <v>0.0963322080261189</v>
+        <v>0.1192965723038198</v>
       </c>
       <c r="D207">
-        <v>0.1280526952555242</v>
+        <v>0.1467172502846516</v>
       </c>
       <c r="E207">
-        <v>0.1353879083640536</v>
+        <v>0.1553535542418511</v>
       </c>
       <c r="F207">
-        <v>0.05238097232906402</v>
+        <v>0.06214939254915428</v>
       </c>
       <c r="G207">
-        <v>0.09713564528086002</v>
+        <v>0.1268716286741101</v>
       </c>
       <c r="H207">
-        <v>0.1515842208741958</v>
-      </c>
-      <c r="I207">
-        <v>0.1576806923025625</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>0.1916855254139457</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.08445053870781651</v>
+        <v>0.0984425598512616</v>
       </c>
       <c r="C208">
-        <v>0.08403186758664676</v>
+        <v>0.09321217336443854</v>
       </c>
       <c r="D208">
-        <v>0.2430896880849279</v>
+        <v>0.2621391581846998</v>
       </c>
       <c r="E208">
-        <v>0.2147723712331716</v>
+        <v>0.2223925665149533</v>
       </c>
       <c r="F208">
-        <v>0.1529245322349025</v>
+        <v>0.1681077045043162</v>
       </c>
       <c r="G208">
-        <v>0.06108119319690082</v>
+        <v>0.06498835511329891</v>
       </c>
       <c r="H208">
-        <v>0.08297348778610687</v>
-      </c>
-      <c r="I208">
-        <v>0.07667632116952705</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>0.09071748246703165</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.1591826673270683</v>
+        <v>0.1950645296380506</v>
       </c>
       <c r="C209">
-        <v>0.1203845337878243</v>
+        <v>0.1423070304851283</v>
       </c>
       <c r="D209">
-        <v>0.1352680486537966</v>
+        <v>0.1549718080702227</v>
       </c>
       <c r="E209">
-        <v>0.1142664003755948</v>
+        <v>0.1326930399156548</v>
       </c>
       <c r="F209">
-        <v>0.09121155683517043</v>
+        <v>0.1085379056623714</v>
       </c>
       <c r="G209">
-        <v>0.08101592243613708</v>
+        <v>0.09441297407115189</v>
       </c>
       <c r="H209">
-        <v>0.149695867599732</v>
-      </c>
-      <c r="I209">
-        <v>0.1489750029846767</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>0.1720127121574203</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.1522132212573076</v>
+        <v>0.2143077781023358</v>
       </c>
       <c r="C210">
-        <v>0.1005245514624011</v>
+        <v>0.1213933480169943</v>
       </c>
       <c r="D210">
-        <v>0.1463613482401362</v>
+        <v>0.18091363107098</v>
       </c>
       <c r="E210">
-        <v>0.1448407107805589</v>
+        <v>0.1527605431278226</v>
       </c>
       <c r="F210">
-        <v>0.08740029326326099</v>
+        <v>0.1048971888356596</v>
       </c>
       <c r="G210">
-        <v>0.06892648692378951</v>
+        <v>0.07342591362113726</v>
       </c>
       <c r="H210">
-        <v>0.1307239717481679</v>
-      </c>
-      <c r="I210">
-        <v>0.1690094163243779</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>0.1523015972250704</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.197117578655447</v>
+        <v>0.2081372319728652</v>
       </c>
       <c r="C211">
-        <v>0.09782309384596448</v>
+        <v>0.1262901309335908</v>
       </c>
       <c r="D211">
-        <v>0.1011666520258643</v>
+        <v>0.1095003295117233</v>
       </c>
       <c r="E211">
-        <v>0.1401166413452142</v>
+        <v>0.1606797734311804</v>
       </c>
       <c r="F211">
-        <v>0.07614510655465967</v>
+        <v>0.09066379512388306</v>
       </c>
       <c r="G211">
-        <v>0.1184535024420691</v>
+        <v>0.1565091699134609</v>
       </c>
       <c r="H211">
-        <v>0.1243212151775022</v>
-      </c>
-      <c r="I211">
-        <v>0.1448562099532791</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>0.1482195691132964</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.09207124250776122</v>
+        <v>0.1008514986989673</v>
       </c>
       <c r="C212">
-        <v>0.08592657603440644</v>
+        <v>0.0963084891357045</v>
       </c>
       <c r="D212">
-        <v>0.1395821095587076</v>
+        <v>0.1614745336063418</v>
       </c>
       <c r="E212">
-        <v>0.1635660680393887</v>
+        <v>0.1901105671337373</v>
       </c>
       <c r="F212">
-        <v>0.2016226327742317</v>
+        <v>0.2177559208198105</v>
       </c>
       <c r="G212">
-        <v>0.1258475708913731</v>
+        <v>0.1397543767505382</v>
       </c>
       <c r="H212">
-        <v>0.0844869875555771</v>
-      </c>
-      <c r="I212">
-        <v>0.1068968126385541</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>0.0937446138549005</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.1381621454817156</v>
+        <v>0.1579194211146062</v>
       </c>
       <c r="C213">
-        <v>0.134592941684575</v>
+        <v>0.1488981443173848</v>
       </c>
       <c r="D213">
-        <v>0.1170512884298529</v>
+        <v>0.1355094284987821</v>
       </c>
       <c r="E213">
-        <v>0.1150450425624854</v>
+        <v>0.1325005840845007</v>
       </c>
       <c r="F213">
-        <v>0.1375362640851882</v>
+        <v>0.1511110377015582</v>
       </c>
       <c r="G213">
-        <v>0.1059623814361567</v>
+        <v>0.1252878079139988</v>
       </c>
       <c r="H213">
-        <v>0.1311456709096704</v>
-      </c>
-      <c r="I213">
-        <v>0.1205042654103557</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>0.1487735763691693</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.0760160144455459</v>
+        <v>0.07915553546235934</v>
       </c>
       <c r="C214">
-        <v>0.08955348641647259</v>
+        <v>0.1005809893479603</v>
       </c>
       <c r="D214">
-        <v>0.1526721085748639</v>
+        <v>0.1728059701441035</v>
       </c>
       <c r="E214">
-        <v>0.186610099361</v>
+        <v>0.2100982485968969</v>
       </c>
       <c r="F214">
-        <v>0.1604164951162</v>
+        <v>0.1729857508010357</v>
       </c>
       <c r="G214">
-        <v>0.1489707876111196</v>
+        <v>0.1667114986054903</v>
       </c>
       <c r="H214">
-        <v>0.08678869759207958</v>
-      </c>
-      <c r="I214">
-        <v>0.09897231088271845</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>0.09766200704215397</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.07309741615252742</v>
+        <v>0.08114007250006257</v>
       </c>
       <c r="C215">
-        <v>0.09709493209456767</v>
+        <v>0.1103692402416627</v>
       </c>
       <c r="D215">
-        <v>0.1890297684061139</v>
+        <v>0.2091154984222567</v>
       </c>
       <c r="E215">
-        <v>0.176395103673912</v>
+        <v>0.1979129544033575</v>
       </c>
       <c r="F215">
-        <v>0.1913568699765979</v>
+        <v>0.207483640487083</v>
       </c>
       <c r="G215">
-        <v>0.09357226323093802</v>
+        <v>0.1016844634370243</v>
       </c>
       <c r="H215">
-        <v>0.08249097300310677</v>
-      </c>
-      <c r="I215">
-        <v>0.09696267346223647</v>
+        <v>0.09229413050855326</v>
       </c>
     </row>
   </sheetData>
